--- a/phrx_words.xlsx
+++ b/phrx_words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Pictures\Phyrexian\phyrexian_search_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2CF121-277B-498C-AAC2-EE12173C80A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A4C1C-E9F7-4E73-A98F-0FD138386D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9216" yWindow="912" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phrx_words" sheetId="1" r:id="rId1"/>
@@ -33,107 +33,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="554">
   <si>
     <t>Ability</t>
   </si>
   <si>
-    <t>JGPT</t>
-  </si>
-  <si>
     <t>ZqOAxNeOVNx</t>
   </si>
   <si>
     <t>Add</t>
   </si>
   <si>
-    <t>VVH</t>
-  </si>
-  <si>
     <t>ZLZQZe</t>
   </si>
   <si>
     <t>Artifact</t>
   </si>
   <si>
-    <t>JGPT, TCS</t>
-  </si>
-  <si>
     <t>ZyNwQTdL-ZZw</t>
   </si>
   <si>
-    <t>TCS</t>
-  </si>
-  <si>
     <t>NqLVdZeONwMvHZvMxFZwZxZyNwQTdL-ZZwNvL-ZFZvENx</t>
   </si>
   <si>
     <t>Battlefield</t>
   </si>
   <si>
-    <t>UtH</t>
-  </si>
-  <si>
     <t>OMxZyZxVK-ZwNwNxONwZx</t>
   </si>
   <si>
-    <t>SWO</t>
-  </si>
-  <si>
     <t>OMxZyZxVK-ZwNwNxONwQZx</t>
   </si>
   <si>
     <t>Begin</t>
   </si>
   <si>
-    <t>SWO, JGCA, UHP</t>
-  </si>
-  <si>
-    <t>PS, AWBO</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>OMxZyTTqGDdGNw</t>
-  </si>
-  <si>
     <t>Card</t>
   </si>
   <si>
-    <t>JGCA</t>
-  </si>
-  <si>
     <t>ZqVFFTdMx</t>
   </si>
   <si>
-    <t>YT</t>
-  </si>
-  <si>
     <t>ZqVGGTdQMx</t>
   </si>
   <si>
     <t>ZqVFTdMx</t>
   </si>
   <si>
-    <t>UHP, ASA</t>
-  </si>
-  <si>
     <t>ZqOZqVFTdMx</t>
   </si>
   <si>
-    <t>UHP</t>
-  </si>
-  <si>
     <t>ZqTdLZeCrZqVFTdGMx</t>
   </si>
   <si>
     <t>Cast</t>
   </si>
   <si>
-    <t>JGPT, ASA</t>
-  </si>
-  <si>
     <t>ZQ-ZwQNd</t>
   </si>
   <si>
@@ -152,9 +107,6 @@
     <t>Compleat</t>
   </si>
   <si>
-    <t>TCS, SL, SLF, PSL, ASA</t>
-  </si>
-  <si>
     <t>Zv_dFTdENwMv</t>
   </si>
   <si>
@@ -164,18 +116,12 @@
     <t>Control</t>
   </si>
   <si>
-    <t>ENGC, UtH</t>
-  </si>
-  <si>
     <t>ZyNwQ-ZvQ_d</t>
   </si>
   <si>
     <t>ZyNwQ-ZvE_d</t>
   </si>
   <si>
-    <t>VVH, TCS</t>
-  </si>
-  <si>
     <t>TdL+ZwTZyNwQ-Zv_d</t>
   </si>
   <si>
@@ -194,9 +140,6 @@
     <t>Counter</t>
   </si>
   <si>
-    <t>VMR, ASA</t>
-  </si>
-  <si>
     <t>VdQQNyVe+Zw</t>
   </si>
   <si>
@@ -215,18 +158,9 @@
     <t>Creature</t>
   </si>
   <si>
-    <t>ENGC, UtH, SWO, JGCA, VVH, VMR, JGPT, UHP</t>
-  </si>
-  <si>
     <t>NqLVdZe+ZvE-ZNw</t>
   </si>
   <si>
-    <t>ENGC, UtH, ASA</t>
-  </si>
-  <si>
-    <t>AWBO</t>
-  </si>
-  <si>
     <t>Death</t>
   </si>
   <si>
@@ -254,24 +188,15 @@
     <t>Edition</t>
   </si>
   <si>
-    <t>SLF</t>
-  </si>
-  <si>
     <t>ZqVFTdMxZvHDdZe</t>
   </si>
   <si>
-    <t>SL</t>
-  </si>
-  <si>
     <t>VTdMxZvDdZe</t>
   </si>
   <si>
     <t>Evolution</t>
   </si>
   <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>MvOZw+NxZqFMvMv</t>
   </si>
   <si>
@@ -296,18 +221,12 @@
     <t>Face</t>
   </si>
   <si>
-    <t>YT, AWBO</t>
-  </si>
-  <si>
     <t>TdLZx_dAx</t>
   </si>
   <si>
     <t>Father</t>
   </si>
   <si>
-    <t>PS, NP, YT</t>
-  </si>
-  <si>
     <t>TH-ZGNx</t>
   </si>
   <si>
@@ -356,9 +275,6 @@
     <t>Great</t>
   </si>
   <si>
-    <t>ENGC</t>
-  </si>
-  <si>
     <t>MxNyL-ZNxArKTdHZZx</t>
   </si>
   <si>
@@ -374,9 +290,6 @@
     <t>Haste</t>
   </si>
   <si>
-    <t>UtH, VMR</t>
-  </si>
-  <si>
     <t>NeVFMdFZw_dNQVZw</t>
   </si>
   <si>
@@ -425,12 +338,6 @@
     <t>Legendary</t>
   </si>
   <si>
-    <t>ENGC, UtH, SWO, JGCA, VVH, VMR, JGPT, UHP, StA</t>
-  </si>
-  <si>
-    <t>TCS, ASA</t>
-  </si>
-  <si>
     <t>NqLVdZeTdT-NQZvTETdZx</t>
   </si>
   <si>
@@ -509,9 +416,6 @@
     <t>Opponent</t>
   </si>
   <si>
-    <t>ENGC, UtH, SWO, JGCA, VVH, VMR, JGPT, UHP, StA, ASA</t>
-  </si>
-  <si>
     <t>ONwTdJZyAx</t>
   </si>
   <si>
@@ -539,9 +443,6 @@
     <t>Permanent</t>
   </si>
   <si>
-    <t>VMR</t>
-  </si>
-  <si>
     <t>OMxZy-ZLMvZxFVVNdO</t>
   </si>
   <si>
@@ -551,580 +452,1249 @@
     <t>Phyrexia</t>
   </si>
   <si>
-    <t>ENGC, PS</t>
-  </si>
-  <si>
     <t>MxHZvDdLZv+ZvGDdNwZwENxGZeNd</t>
   </si>
   <si>
     <t>Play</t>
   </si>
   <si>
-    <t>YT, UHP</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
+    <t>Praetor</t>
+  </si>
+  <si>
+    <t>ZvNwLVdZxDd</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>ZyZvETdAxHZdDdT</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>NqF+NxO-ZE-Z</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
+  <si>
+    <t>TJNeGZe</t>
+  </si>
+  <si>
+    <t>Resistence</t>
+  </si>
+  <si>
+    <t>TDdHZdTdZyVeDdCrVF-ZZe</t>
+  </si>
+  <si>
+    <t>Reveal</t>
+  </si>
+  <si>
+    <t>ZwDdEZvGZe</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>TdH-ZZ-ZQZeGT</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>NvKNNe</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>NqFDdQZwET</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Zv_dZxNwENwGMx</t>
+  </si>
+  <si>
+    <t>ONwZxNwMx</t>
+  </si>
+  <si>
+    <t>ZGZxZvZxNwGMx</t>
+  </si>
+  <si>
+    <t>Sorcery</t>
+  </si>
+  <si>
+    <t>ZwLMxZv_dNqQTMv</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>NqQQTQMv</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Zd_dLZMdZyZvETdGAx</t>
+  </si>
+  <si>
+    <t>Zd_dLZMdZyZvKTdQAx</t>
+  </si>
+  <si>
+    <t>ZyLMxZwT</t>
+  </si>
+  <si>
+    <t>Swampwalk</t>
+  </si>
+  <si>
+    <t>NeVFZyLMxZwTVdTETdZx</t>
+  </si>
+  <si>
+    <t>Tap</t>
+  </si>
+  <si>
+    <t>NeGZvT</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>MwGNwQZx</t>
+  </si>
+  <si>
+    <t>NvEZdNyMvZxMvZyG_dT</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Trample</t>
+  </si>
+  <si>
+    <t>NeVFZwNvJ-ZyZvLTd-ZZe</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>ZdMwOCdZqZx</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>NwEDdHTdNe-ZFF-ZO</t>
+  </si>
+  <si>
+    <t>MwZwFZqODdHTdNe</t>
+  </si>
+  <si>
+    <t>MwZwFZqODdHTdNw</t>
+  </si>
+  <si>
+    <t>ZqODdHTdENe</t>
+  </si>
+  <si>
+    <t>Untap</t>
+  </si>
+  <si>
+    <t>NqFONwNeGZvET</t>
+  </si>
+  <si>
+    <t>Vigilance</t>
+  </si>
+  <si>
+    <t>NeVFZvTdDdQZwT</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>NwQZxMxGN</t>
+  </si>
+  <si>
+    <t>NwQZxMxLN</t>
+  </si>
+  <si>
+    <t>Whisper</t>
+  </si>
+  <si>
+    <t>NqF-ZFArE-ZEZx</t>
+  </si>
+  <si>
+    <t>TdL+ZwT-ZFArEE-ZZx</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>ZqOZwENxOZeNd</t>
+  </si>
+  <si>
+    <t>Apocalypse</t>
+  </si>
+  <si>
+    <t>TdF-ZxLTZe</t>
+  </si>
+  <si>
+    <t>Deathtouch</t>
+  </si>
+  <si>
+    <t>NeVFNxQZyNw-ZOZwMx</t>
+  </si>
+  <si>
+    <t>ZxEZwZxNxONw-ZQZx</t>
+  </si>
+  <si>
+    <t>ZwDdEZvQZe</t>
+  </si>
+  <si>
+    <t>NqF+ZvE-ZNw</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>NwEONwZwHDdNwZeDd+ZwF-ZO</t>
+  </si>
+  <si>
+    <t>Distribute</t>
+  </si>
+  <si>
+    <t>NyCdZwENQZw</t>
+  </si>
+  <si>
+    <t>ZqO-ZvEE-ZNw</t>
+  </si>
+  <si>
+    <t>ZxLZvGZy</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>TdJZyQ_d</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Emblem</t>
+  </si>
+  <si>
+    <t>AxZwL_dLZwT</t>
+  </si>
+  <si>
+    <t>TdL-ZwQT</t>
+  </si>
+  <si>
+    <t>ZxLZvEZy</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Tyrant</t>
+  </si>
+  <si>
+    <t>ZeDdVdO-ZxDdZw</t>
+  </si>
+  <si>
+    <t>Cenobite</t>
+  </si>
+  <si>
+    <t>+ZwQ</t>
+  </si>
+  <si>
+    <t>-ZwEArG_dZyFZxMvHZdDdT</t>
+  </si>
+  <si>
+    <t>+ZwF</t>
+  </si>
+  <si>
+    <t>-Zv_dTdL+ZwTZyZvKTdQAx</t>
+  </si>
+  <si>
+    <t>-ZFArEE-ZZx</t>
+  </si>
+  <si>
+    <t>+NxO-ZE-Z</t>
+  </si>
+  <si>
+    <t>+NxO-ZQ-Z</t>
+  </si>
+  <si>
+    <t>-ZwGZx-ZvZx</t>
+  </si>
+  <si>
+    <t>+ZvGDdNwZwENxOZeNd</t>
+  </si>
+  <si>
+    <t>-ZLMvZxFVV</t>
+  </si>
+  <si>
+    <t>-ZQZe-ZONyV</t>
+  </si>
+  <si>
+    <t>-ZOZvGDdNwTdL+ZwGT</t>
+  </si>
+  <si>
+    <t>-NNxQZyNwFVVNxONwZx</t>
+  </si>
+  <si>
+    <t>-Zv_d_dQZvMvNxONwZx</t>
+  </si>
+  <si>
+    <t>+Zv-ZZwFZxN</t>
+  </si>
+  <si>
+    <t>-NAxNwOZx-ZNxONwZxNdO</t>
+  </si>
+  <si>
+    <t>-N-ZvEE-ZNw</t>
+  </si>
+  <si>
+    <t>+ZvE-ZNw</t>
+  </si>
+  <si>
+    <t>+ZvE-ZNwZqVFTdMx</t>
+  </si>
+  <si>
+    <t>-ZvEE-ZNw</t>
+  </si>
+  <si>
+    <t>+Zv_dTdL+ZwET</t>
+  </si>
+  <si>
+    <t>-ZFFZxAxZqVFTdGMx</t>
+  </si>
+  <si>
+    <t>-ZFFNwZxNvQ-ZEZy</t>
+  </si>
+  <si>
+    <t>-ZFFNwZxNvQ-ZZy</t>
+  </si>
+  <si>
+    <t>Planeswalker</t>
+  </si>
+  <si>
+    <t>NqLVdZeTdT-NQZvTETdZxNdO</t>
+  </si>
+  <si>
+    <t>Psychosis</t>
+  </si>
+  <si>
+    <t>VdF+ZyZeNeVF-ZN</t>
+  </si>
+  <si>
+    <t>Crawler</t>
+  </si>
+  <si>
+    <t>ZVEZdTd</t>
+  </si>
+  <si>
+    <t>ZyNwQTdL-ZZw+ZvE-ZNw</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>MxNyNqJAxNw</t>
+  </si>
+  <si>
+    <t>Zd_dTdJZyQ_d</t>
+  </si>
+  <si>
+    <t>VZqVFFTdMx</t>
+  </si>
+  <si>
+    <t>LNyOV-ZONwTdJZyAx</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Plains</t>
+  </si>
+  <si>
+    <t>-ZFAxZy_d</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>-ZHZqNxOMvNd</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>ZwVeNxOZqNd</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>ZwZxLZwNw</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>VdJ-ZZeMwJNdNq</t>
+  </si>
+  <si>
+    <t>MxNyL-ZGNx</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>MxZdENyQZd</t>
+  </si>
+  <si>
+    <t>Embrace</t>
+  </si>
+  <si>
+    <t>Zq+NxDdJMvLZd</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>+ZwHCr-ZwQT</t>
+  </si>
+  <si>
+    <t>-N-ZvTeHZxQNw</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Zd_dFZwNyLTdQVd</t>
+  </si>
+  <si>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>MxHZvDdLZvZx+ZvGDdNwZwENxOZqNd</t>
+  </si>
+  <si>
+    <t>Behold</t>
+  </si>
+  <si>
+    <t>NyZxETdL</t>
+  </si>
+  <si>
+    <t>VdTdL+ZwT</t>
+  </si>
+  <si>
+    <t>Surrender</t>
+  </si>
+  <si>
+    <t>ZvTdMvAxL-ZQNx</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>+ZwQCrLNx-ZwN</t>
+  </si>
+  <si>
+    <t>Zq+NxDdJMvZd</t>
+  </si>
+  <si>
+    <t>MxZdENyLLZd</t>
+  </si>
+  <si>
+    <t>Subscribe</t>
+  </si>
+  <si>
+    <t>Md-ZxKMvLLAr</t>
+  </si>
+  <si>
+    <t>+ZvGDdNwZwENxOZeHNd</t>
+  </si>
+  <si>
+    <t>Zd_d-ZOZvGDdGNw</t>
+  </si>
+  <si>
+    <t>ZqOZwENxOZqNd</t>
+  </si>
+  <si>
+    <t>Sow</t>
+  </si>
+  <si>
+    <t>NxVFNyLMx</t>
+  </si>
+  <si>
+    <t>MwJNdGNq</t>
+  </si>
+  <si>
+    <t>NeK-ZvF-ZZx</t>
+  </si>
+  <si>
+    <t>ZqFMvEMv</t>
+  </si>
+  <si>
+    <t>NPH_Norn</t>
+  </si>
+  <si>
+    <t>NPH_Jin</t>
+  </si>
+  <si>
+    <t>NPH_Vorin</t>
+  </si>
+  <si>
+    <t>NPH_Sheo</t>
+  </si>
+  <si>
+    <t>NPH_Ura</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura</t>
+  </si>
+  <si>
+    <t>NEO_Jin</t>
+  </si>
+  <si>
+    <t>NEO_Tami</t>
+  </si>
+  <si>
+    <t>NPH_Vorin, NEO_Tami</t>
+  </si>
+  <si>
+    <t>NPH_Jin, NEO_Tami</t>
+  </si>
+  <si>
+    <t>DMU_Ajani</t>
+  </si>
+  <si>
+    <t>ONE_Plains</t>
+  </si>
+  <si>
+    <t>ONE_Mount</t>
+  </si>
+  <si>
+    <t>SNC_Ura, DMU_Ajani</t>
+  </si>
+  <si>
+    <t>SNC_Ura</t>
+  </si>
+  <si>
+    <t>NPH_Sheo, SNC_Ura</t>
+  </si>
+  <si>
+    <t>DMU_Sheo</t>
+  </si>
+  <si>
+    <t>KHM_Vorin, DMU_Ajani</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_Sheo, NPH_Jin, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_Sheo, NPH_Jin, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo, DMU_Ajani</t>
+  </si>
+  <si>
+    <t>KHM_Vorin</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_Jin, NPH_Sheo, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo</t>
+  </si>
+  <si>
+    <t>NPH_Vorin, KHM_Vorin</t>
+  </si>
+  <si>
+    <t>ONE_Island</t>
+  </si>
+  <si>
+    <t>OMxZYawg_TestTqGDdGNw</t>
+  </si>
+  <si>
+    <t>Yawg_Test</t>
+  </si>
+  <si>
+    <t>Yawg_Test, SNC_Ura</t>
+  </si>
+  <si>
+    <t>Yawg_Test, NEO_Jin</t>
+  </si>
+  <si>
+    <t>Promo_PsyCrawl</t>
+  </si>
+  <si>
+    <t>Promo_Swamp</t>
+  </si>
+  <si>
+    <t>ONE_Island, ONE_Plains, ONE_Forest, ONE_Mount, ONE_Swamp</t>
+  </si>
+  <si>
+    <t>PhrxScriptures, MBS_Trailer</t>
+  </si>
+  <si>
+    <t>BeadleGrims, ONE_Plains</t>
+  </si>
+  <si>
+    <t>BeadleGrims</t>
+  </si>
+  <si>
+    <t>NPH_Trailer</t>
+  </si>
+  <si>
+    <t>SLairF_Praetors</t>
+  </si>
+  <si>
+    <t>ONE_Article</t>
+  </si>
+  <si>
+    <t>MBS_Trailer</t>
+  </si>
+  <si>
+    <t>SLair_Praetors</t>
+  </si>
+  <si>
+    <t>PhrxScriptures</t>
+  </si>
+  <si>
+    <t>ONE_Forest</t>
+  </si>
+  <si>
+    <t>Yawg_Test, MBS_Trailer</t>
+  </si>
+  <si>
+    <t>PhrxScriptures, NPH_Trailer, Yawg_Test</t>
+  </si>
+  <si>
+    <t>MBS_Trailer, ONE_Swamp</t>
+  </si>
+  <si>
+    <t>ONE_Live</t>
+  </si>
+  <si>
+    <t>MBS_Trailer, ONE_Mount</t>
+  </si>
+  <si>
+    <t>PhrxScriptures, ONE_Plains</t>
+  </si>
+  <si>
+    <t>NPH_Norn, PhrxScriptures</t>
+  </si>
+  <si>
+    <t>PhrxAltar</t>
+  </si>
+  <si>
+    <t>ONE_Live, ONE_Swamp</t>
+  </si>
+  <si>
+    <t>BeadleGrims, Merch, ONE_Jace_Art</t>
+  </si>
+  <si>
+    <t>Promo_Swamp, ONE_Swamp</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>ONE_PhrxArena</t>
+  </si>
+  <si>
+    <t>ZyLZ-ZNxONwZx</t>
+  </si>
+  <si>
+    <t>Enchantment</t>
+  </si>
+  <si>
+    <t>TGNxMw</t>
+  </si>
+  <si>
+    <t>Testament</t>
+  </si>
+  <si>
+    <t>NPH_Sheo, SNC_Ura, ONE_PhrxArena</t>
+  </si>
+  <si>
+    <t>Glisten</t>
+  </si>
+  <si>
+    <t>NPH_Elf</t>
+  </si>
+  <si>
+    <t>TdL+ZwT+Zv-ZZwFZxN</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>VdL_dNv</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>TdL+ZwTZxArG+ZvZx</t>
+  </si>
+  <si>
+    <t>Infect</t>
+  </si>
+  <si>
+    <t>NeVFCrONeNd</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>TdMvL-ZZy</t>
+  </si>
+  <si>
+    <t>Beg</t>
+  </si>
+  <si>
+    <t>ZvTd-ZOZxMvNwLLTd</t>
+  </si>
+  <si>
+    <t>Perfection</t>
+  </si>
+  <si>
+    <t>V+ZvGDdNwVdTdL+ZwT</t>
+  </si>
+  <si>
+    <t>Fill</t>
+  </si>
+  <si>
+    <t>ZCdK_dL-Zv</t>
+  </si>
+  <si>
+    <t>Glory</t>
+  </si>
+  <si>
+    <t>-ZJVdZ-Zx</t>
+  </si>
+  <si>
+    <t>Blight</t>
+  </si>
+  <si>
+    <t>NPH_Agent</t>
+  </si>
+  <si>
+    <t>CrMdOZxNeNd</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>ZeLTdVDd</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>-ZKTdO+Zw</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>NxQZx_dMdOZxAx</t>
+  </si>
+  <si>
+    <t>Sective</t>
+  </si>
+  <si>
+    <t>CrZvHDdZxZx</t>
+  </si>
+  <si>
+    <t>Surveilance</t>
+  </si>
+  <si>
+    <t>Ny-NEDdQ-ZwQT</t>
+  </si>
+  <si>
+    <t>Dismember</t>
+  </si>
+  <si>
+    <t>Promo_Dismember</t>
+  </si>
+  <si>
+    <t>AxONwZwENvL-ZZyMvETDd</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>NPH_Batterskull</t>
+  </si>
+  <si>
+    <t>ZyFZvTZx</t>
+  </si>
+  <si>
+    <t>Living Weapon</t>
+  </si>
+  <si>
+    <t>AxZwLZyZyZxVK+ZvZx</t>
+  </si>
+  <si>
+    <t>Equip</t>
+  </si>
+  <si>
+    <t>ZyFZv_dZx+ZvE-ZNw</t>
+  </si>
+  <si>
+    <t>NPH_Norn, DMU_Ajani, Promo_Batterskull</t>
+  </si>
+  <si>
+    <t>Lifelink</t>
+  </si>
+  <si>
+    <t>NeVFTdMvL-ZZyDdL+ZvHVd</t>
+  </si>
+  <si>
+    <t>NqFZxLZvGZy</t>
+  </si>
+  <si>
+    <t>ZyFZv_dZx</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>NqF-ZF+NxZxOTdQTd</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>-NTdL+ZwTZwE+ZvE-ZNwTdLZy_d</t>
+  </si>
+  <si>
+    <t>Inkmoth</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>NPH_InkNexus</t>
+  </si>
+  <si>
+    <t>Zd_dLZMdArNvG_d_d-ZOZyZd</t>
+  </si>
+  <si>
+    <t>NPH_Vorin, ONE_Island, ONE_Plains, ONE_Forest, ONE_Mount, ONE_Swamp, NPH_InkNexus</t>
+  </si>
+  <si>
+    <t>Zd_dLZMdArNvG_d_d</t>
+  </si>
+  <si>
+    <t>Promo_PsyCrawl, NPH_InkNexus</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>NeVFZxKMxZy</t>
+  </si>
+  <si>
+    <t>NPH_Elf, NPH_Agent, NPH_InkNexus</t>
+  </si>
+  <si>
+    <t>C19_Krrik</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>-ZF-ZG_d</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_Sheo, NPH_Jin, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, C19_Krrik</t>
+  </si>
+  <si>
+    <t>Promo_PsyCrawl, C19_Krrik</t>
+  </si>
+  <si>
+    <t>Minion</t>
+  </si>
+  <si>
+    <t>-ZOZyHZy-Z</t>
+  </si>
+  <si>
+    <t>NPH_Batterskull, C19_Krrik</t>
+  </si>
+  <si>
+    <t>NPH_Elf, C19_Krrik</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>-NQZyCdZeK-ZxQZx</t>
+  </si>
+  <si>
+    <t>NqF-NQZyCdZeK-ZxQZx</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>NvLNwZx</t>
+  </si>
+  <si>
+    <t>NqQTMv</t>
+  </si>
+  <si>
+    <t>NEO_Jin, DMU_Ajani, C19_Krrik</t>
+  </si>
+  <si>
+    <t>VdQNVe+Zw</t>
+  </si>
+  <si>
+    <t>Annex</t>
+  </si>
+  <si>
+    <t>NPH_Annex</t>
+  </si>
+  <si>
+    <t>-Zw_dOZxZwGZw</t>
+  </si>
+  <si>
+    <t>DMU_Ajani, NPH_Annex</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>ZeNqGAxZxNw</t>
+  </si>
+  <si>
+    <t>ZyNwQ-ZvG_d</t>
+  </si>
+  <si>
+    <t>-NQZyCdZeKZxEZx</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>LNyOV-Z</t>
+  </si>
+  <si>
+    <t>NwE-ZMxZxLNyOV+ZvE-ZNw-ZO</t>
+  </si>
+  <si>
+    <t>BeadleGrims, Merch, ONE_Jace_Art, ONE_Island, ONE_Jace</t>
+  </si>
+  <si>
+    <t>ONE_Jace</t>
+  </si>
+  <si>
+    <t>-ZZxOCrFDdZx</t>
+  </si>
+  <si>
+    <t>+ZvJ-ZZqTdLZeCrDdHTdQNe</t>
+  </si>
+  <si>
     <t>OMxZyTdJZyAx</t>
   </si>
   <si>
-    <t>Praetor</t>
-  </si>
-  <si>
-    <t>ENGC, UtH, JGCA, SWO, VVH, VMR, JGPT, UHP, StA</t>
-  </si>
-  <si>
-    <t>ZvNwLVdZxDd</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>ZyZvETdAxHZdDdT</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Put</t>
-  </si>
-  <si>
-    <t>NqF+NxO-ZE-Z</t>
-  </si>
-  <si>
-    <t>Reduce</t>
-  </si>
-  <si>
-    <t>JGCA, TCS</t>
-  </si>
-  <si>
-    <t>TJNeGZe</t>
-  </si>
-  <si>
-    <t>Resistence</t>
-  </si>
-  <si>
-    <t>TDdHZdTdZyVeDdCrVF-ZZe</t>
-  </si>
-  <si>
-    <t>Reveal</t>
-  </si>
-  <si>
-    <t>ZwDdEZvGZe</t>
-  </si>
-  <si>
-    <t>Sacrifice</t>
-  </si>
-  <si>
-    <t>TdH-ZZ-ZQZeGT</t>
-  </si>
-  <si>
-    <t>Sage</t>
-  </si>
-  <si>
-    <t>NvKNNe</t>
-  </si>
-  <si>
-    <t>See</t>
-  </si>
-  <si>
-    <t>NqFDdQZwET</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>Zv_dZxNwENwGMx</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>ONwZxNwMx</t>
-  </si>
-  <si>
-    <t>ZGZxZvZxNwGMx</t>
-  </si>
-  <si>
-    <t>Sorcery</t>
-  </si>
-  <si>
-    <t>YT, JGPT</t>
-  </si>
-  <si>
-    <t>ZwLMxZv_dNqQTMv</t>
-  </si>
-  <si>
-    <t>Spell</t>
-  </si>
-  <si>
-    <t>NqQQTQMv</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>SWO, UHP</t>
-  </si>
-  <si>
-    <t>Zd_dLZMdZyZvETdGAx</t>
-  </si>
-  <si>
-    <t>Zd_dLZMdZyZvKTdQAx</t>
-  </si>
-  <si>
-    <t>ZyLMxZwT</t>
-  </si>
-  <si>
-    <t>Swampwalk</t>
-  </si>
-  <si>
-    <t>NeVFZyLMxZwTVdTETdZx</t>
-  </si>
-  <si>
-    <t>Tap</t>
-  </si>
-  <si>
-    <t>NeGZvT</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>MwGNwQZx</t>
-  </si>
-  <si>
-    <t>Testament</t>
-  </si>
-  <si>
-    <t>NvEZdNyMvZxMvZyG_dT</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Trample</t>
-  </si>
-  <si>
-    <t>VVH, VMR</t>
-  </si>
-  <si>
-    <t>NeVFZwNvJ-ZyZvLTd-ZZe</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>ZdMwOCdZqZx</t>
-  </si>
-  <si>
-    <t>Turn</t>
-  </si>
-  <si>
-    <t>NwEDdHTdNe-ZFF-ZO</t>
-  </si>
-  <si>
-    <t>MwZwFZqODdHTdNe</t>
-  </si>
-  <si>
-    <t>MwZwFZqODdHTdNw</t>
-  </si>
-  <si>
-    <t>ZqODdHTdENe</t>
-  </si>
-  <si>
-    <t>Untap</t>
-  </si>
-  <si>
-    <t>NqFONwNeGZvET</t>
-  </si>
-  <si>
-    <t>Vigilance</t>
-  </si>
-  <si>
-    <t>ENGC, ASA</t>
-  </si>
-  <si>
-    <t>NeVFZvTdDdQZwT</t>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>NwQZxMxGN</t>
-  </si>
-  <si>
-    <t>NwQZxMxLN</t>
-  </si>
-  <si>
-    <t>Whisper</t>
-  </si>
-  <si>
-    <t>NqF-ZFArE-ZEZx</t>
-  </si>
-  <si>
-    <t>TdL+ZwT-ZFArEE-ZZx</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>ZqOZwENxOZeNd</t>
-  </si>
-  <si>
-    <t>Apocalypse</t>
-  </si>
-  <si>
-    <t>StA</t>
-  </si>
-  <si>
-    <t>TdF-ZxLTZe</t>
-  </si>
-  <si>
-    <t>Deathtouch</t>
-  </si>
-  <si>
-    <t>NeVFNxQZyNw-ZOZwMx</t>
-  </si>
-  <si>
-    <t>ASA</t>
-  </si>
-  <si>
-    <t>ZxEZwZxNxONw-ZQZx</t>
-  </si>
-  <si>
-    <t>ZwDdEZvQZe</t>
-  </si>
-  <si>
-    <t>NqF+ZvE-ZNw</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>NwEONwZwHDdNwZeDd+ZwF-ZO</t>
-  </si>
-  <si>
-    <t>Distribute</t>
-  </si>
-  <si>
-    <t>NyCdZwENQZw</t>
-  </si>
-  <si>
-    <t>ZqO-ZvEE-ZNw</t>
-  </si>
-  <si>
-    <t>ZxLZvGZy</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>TdJZyQ_d</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>Emblem</t>
-  </si>
-  <si>
-    <t>AxZwL_dLZwT</t>
-  </si>
-  <si>
-    <t>TdL-ZwQT</t>
-  </si>
-  <si>
-    <t>ZxLZvEZy</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>Tyrant</t>
-  </si>
-  <si>
-    <t>ZeDdVdO-ZxDdZw</t>
-  </si>
-  <si>
-    <t>Cenobite</t>
-  </si>
-  <si>
-    <t>+ZwQ</t>
-  </si>
-  <si>
-    <t>-ZwEArG_dZyFZxMvHZdDdT</t>
-  </si>
-  <si>
-    <t>+ZwF</t>
-  </si>
-  <si>
-    <t>-Zv_dTdL+ZwTZyZvKTdQAx</t>
-  </si>
-  <si>
-    <t>-ZFArEE-ZZx</t>
-  </si>
-  <si>
-    <t>+NxO-ZE-Z</t>
-  </si>
-  <si>
-    <t>+NxO-ZQ-Z</t>
-  </si>
-  <si>
-    <t>-ZwGZx-ZvZx</t>
-  </si>
-  <si>
-    <t>+ZvGDdNwZwENxOZeNd</t>
-  </si>
-  <si>
-    <t>-ZLMvZxFVV</t>
-  </si>
-  <si>
-    <t>-ZQZe-ZONyV</t>
-  </si>
-  <si>
-    <t>-ZOZvGDdNwTdL+ZwGT</t>
-  </si>
-  <si>
-    <t>-NNxQZyNwFVVNxONwZx</t>
-  </si>
-  <si>
-    <t>-Zv_d_dQZvMvNxONwZx</t>
-  </si>
-  <si>
-    <t>+Zv-ZZwFZxN</t>
-  </si>
-  <si>
-    <t>-NAxNwOZx-ZNxONwZxNdO</t>
-  </si>
-  <si>
-    <t>-N-ZvEE-ZNw</t>
-  </si>
-  <si>
-    <t>+ZvE-ZNw</t>
-  </si>
-  <si>
-    <t>+ZvE-ZNwZqVFTdMx</t>
-  </si>
-  <si>
-    <t>-ZvEE-ZNw</t>
-  </si>
-  <si>
-    <t>+Zv_dTdL+ZwET</t>
-  </si>
-  <si>
-    <t>-ZFFZxAxZqVFTdGMx</t>
-  </si>
-  <si>
-    <t>-ZFFNwZxNvQ-ZEZy</t>
-  </si>
-  <si>
-    <t>-ZFFNwZxNvQ-ZZy</t>
-  </si>
-  <si>
-    <t>Planeswalker</t>
-  </si>
-  <si>
-    <t>NqLVdZeTdT-NQZvTETdZxNdO</t>
-  </si>
-  <si>
-    <t>UtH, TCS, ASA, Dismember</t>
-  </si>
-  <si>
-    <t>SWO, TCS, ASA, Dismember</t>
-  </si>
-  <si>
-    <t>YT, UHP, ASA, Dismember</t>
-  </si>
-  <si>
-    <t>ASA, Dismember</t>
-  </si>
-  <si>
-    <t>Psychosis</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>VdF+ZyZeNeVF-ZN</t>
-  </si>
-  <si>
-    <t>Crawler</t>
-  </si>
-  <si>
-    <t>ZVEZdTd</t>
-  </si>
-  <si>
-    <t>ZyNwQTdL-ZZw+ZvE-ZNw</t>
-  </si>
-  <si>
-    <t>Horror</t>
-  </si>
-  <si>
-    <t>MxNyNqJAxNw</t>
-  </si>
-  <si>
-    <t>Zd_dTdJZyQ_d</t>
-  </si>
-  <si>
-    <t>VZqVFFTdMx</t>
-  </si>
-  <si>
-    <t>TCS, StA, PC</t>
-  </si>
-  <si>
-    <t>LNyOV-ZONwTdJZyAx</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Plains</t>
-  </si>
-  <si>
-    <t>FAPlains</t>
-  </si>
-  <si>
-    <t>-ZFAxZy_d</t>
-  </si>
-  <si>
-    <t>Swamp, FASwamp</t>
-  </si>
-  <si>
-    <t>Island</t>
-  </si>
-  <si>
-    <t>FAForest</t>
-  </si>
-  <si>
-    <t>-ZHZqNxOMvNd</t>
-  </si>
-  <si>
-    <t>FAIsland</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>ZwVeNxOZqNd</t>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <t>FAMount</t>
-  </si>
-  <si>
-    <t>ZwZxLZwNw</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>AWBOArticle</t>
-  </si>
-  <si>
-    <t>VdJ-ZZeMwJNdNq</t>
-  </si>
-  <si>
-    <t>MxNyL-ZGNx</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>MxZdENyQZd</t>
-  </si>
-  <si>
-    <t>Embrace</t>
-  </si>
-  <si>
-    <t>Zq+NxDdJMvLZd</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>+ZwHCr-ZwQT</t>
-  </si>
-  <si>
-    <t>-N-ZvTeHZxQNw</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Zd_dFZwNyLTdQVd</t>
-  </si>
-  <si>
-    <t>BGMTG</t>
-  </si>
-  <si>
-    <t>Knee</t>
-  </si>
-  <si>
-    <t>MxHZvDdLZvZx+ZvGDdNwZwENxOZqNd</t>
-  </si>
-  <si>
-    <t>Behold</t>
-  </si>
-  <si>
-    <t>NyZxETdL</t>
-  </si>
-  <si>
-    <t>VdTdL+ZwT</t>
-  </si>
-  <si>
-    <t>Surrender</t>
-  </si>
-  <si>
-    <t>ZvTdMvAxL-ZQNx</t>
-  </si>
-  <si>
-    <t>BGMTG, Merch, WIJ</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>+ZwQCrLNx-ZwN</t>
-  </si>
-  <si>
-    <t>Zq+NxDdJMvZd</t>
-  </si>
-  <si>
-    <t>MxZdENyLLZd</t>
-  </si>
-  <si>
-    <t>Subscribe</t>
-  </si>
-  <si>
-    <t>Md-ZxKMvLLAr</t>
-  </si>
-  <si>
-    <t>AWBOLive</t>
-  </si>
-  <si>
-    <t>+ZvGDdNwZwENxOZeHNd</t>
-  </si>
-  <si>
-    <t>Zd_d-ZOZvGDdGNw</t>
-  </si>
-  <si>
-    <t>ZqOZwENxOZqNd</t>
-  </si>
-  <si>
-    <t>Sow</t>
-  </si>
-  <si>
-    <t>NxVFNyLMx</t>
+    <t>TdJZyAx</t>
+  </si>
+  <si>
+    <t>Mill</t>
+  </si>
+  <si>
+    <t>VeOZvEZw</t>
+  </si>
+  <si>
+    <t>NxQZyNwFVVNxONwZx</t>
+  </si>
+  <si>
+    <t>NPH_Jin, ONE_Jace</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>ZxKVZv</t>
+  </si>
+  <si>
+    <t>Betrayal</t>
+  </si>
+  <si>
+    <t>ONE_Vraska</t>
+  </si>
+  <si>
+    <t>-ZvTdHZwNw</t>
+  </si>
+  <si>
+    <t>Sting</t>
+  </si>
+  <si>
+    <t>-ZLNvG-Z</t>
+  </si>
+  <si>
+    <t>NEO_Tami, DMU_Ajani, ONE_Jace, ONE_Vraska, ONE_Lukka, ONE_Nissa, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>NEO_Tami, SLair_Praetors, SLairF_Praetors, PSL, DMU_Ajani, ONE_Jace, ONE_Vraska, ONE_Lukka, ONE_Nissa, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>Proliferate</t>
+  </si>
+  <si>
+    <t>VdEZwZx_dENwKZy</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>-Zy_dFTeMx</t>
+  </si>
+  <si>
+    <t>NPH_Norn, ONE_Vraska</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ZqVFTdMx-ZvKKZwZwNeVFF-ZZxNwO</t>
+  </si>
+  <si>
+    <t>TdH-ZZ-ZQZeQT</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>ZJZvMvHZvMxFZwZx</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>-ZFF</t>
+  </si>
+  <si>
+    <t>NPH_Trailer, ONE_Vraska</t>
+  </si>
+  <si>
+    <t>Ascend</t>
+  </si>
+  <si>
+    <t>ONE_Nissa</t>
+  </si>
+  <si>
+    <t>ZvTdTETdNx</t>
+  </si>
+  <si>
+    <t>Animist</t>
+  </si>
+  <si>
+    <t>TdL+ZwTTdMvL-ZZy</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>CrFVV+ZvGDdNwMxNyNqJAxNw+ZvE-ZNwNvL-ZFZvNx</t>
+  </si>
+  <si>
+    <t>Loyalty</t>
+  </si>
+  <si>
+    <t>-NQZyZxZwETqGZx</t>
+  </si>
+  <si>
+    <t>NEO_Jin, NEO_Tami, NPH_Batterskull, NPH_Annex, ONE_Vraska, ONE_Nissa</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>ZyLZQ-Z</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, DMU_Ajani, NPH_Annex, ONE_Nissa</t>
+  </si>
+  <si>
+    <t>LNyOV-ZHZqNxOMvNd</t>
+  </si>
+  <si>
+    <t>NeVFZwNvJ-ZyZvLTd-ZZeNwO</t>
+  </si>
+  <si>
+    <t>Yawg_Test, SNC_Ura, DMU_Ajani, Promo_Dismember, NPH_InkNexus, ONE_Nissa</t>
+  </si>
+  <si>
+    <t>DMU_Ajani, Promo_Dismember, ONE_Jace, ONE_Nissa</t>
+  </si>
+  <si>
+    <t>Bind</t>
+  </si>
+  <si>
+    <t>ONE_Lukka</t>
+  </si>
+  <si>
+    <t>ZwETqZx</t>
+  </si>
+  <si>
+    <t>Ruin</t>
+  </si>
+  <si>
+    <t>-NNvVEMwZv</t>
+  </si>
+  <si>
+    <t>NPH_Vorin, ONE_Vraska, ONE_Lukka</t>
+  </si>
+  <si>
+    <t>ZqOTL-ZTd</t>
+  </si>
+  <si>
+    <t>Activate</t>
+  </si>
+  <si>
+    <t>+ZvEE-ZNwAxZxOAxZv_dFNeTdNeVF-ZGZxNdO</t>
+  </si>
+  <si>
+    <t>Spend</t>
+  </si>
+  <si>
+    <t>NqF-NFMvQZv</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>CrFVV+ZvGDdNwZvTdZvE-ZZw+ZvE-ZNwZvL-ZFZvNx</t>
+  </si>
+  <si>
+    <t>Toxic</t>
+  </si>
+  <si>
+    <t>CdLNqZy</t>
+  </si>
+  <si>
+    <t>DMU_Ajani, ONE_Vraska, ONE_Lukka</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>-ZJZvLMvODdNx+ZvEE-ZNwNqLVdZeTdT-NQQZvTETdZxNwONdO</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>NdZvLAxQZw</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_Annex, ONE_Nissa, ONE_Lukka</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>NqLMdZvTdZwHDdNwTdQ-ZNv+ZvEE-ZNw</t>
+  </si>
+  <si>
+    <t>NeVF-ZZx</t>
+  </si>
+  <si>
+    <t>AxZxOAxZv_dFNeQTd</t>
+  </si>
+  <si>
+    <t>Unforgiving</t>
+  </si>
+  <si>
+    <t>ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>TeGZyNy</t>
+  </si>
+  <si>
+    <t>NPH_Ura, NEO_Tami, DMU_Ajani, Promo_Dismember, NPH_Elf, NPH_Agent, NPH_InkNexus, ONE_Jace, ONE_Vraska, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>NPH_Sheo, NEO_Tami, DMU_Ajani, Promo_Dismember, ONE_Jace, ONE_Vraska, ONE_Lukka, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>ZqO+ZvE-ZNw</t>
+  </si>
+  <si>
+    <t>ONE_Jace, ONE_Vraska, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>ONE_Jace, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>NwEZx-ZELNyOV-ZZxVK-ZwNw-ZO</t>
+  </si>
+  <si>
+    <t>NqFZeNqFAxZxENw</t>
+  </si>
+  <si>
+    <t>NEO_Tami, DMU_Sheo, Promo_PsyCrawl, ONE_PhrxArena, ONE_Jace, ONE_Vraska, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>Discard</t>
+  </si>
+  <si>
+    <t>MxZxE-ZyQNq</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>ZyODdNyLTdVdLMvODdNxZeDdTJNeZeTd-NFDdFF-Z-NQZyZxZwETqGZx</t>
+  </si>
+  <si>
+    <t>NeVeNxQZyNwFVVNxONwQZx</t>
+  </si>
+  <si>
+    <t>SNC_Ura, DMU_Ajani, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>SNC_Ura, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>NEO_Jin, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>DMU_Ajani, ONE_Nissa, ONE_Lukka, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>NvL-ZFZvNx</t>
+  </si>
+  <si>
+    <t>NPH_Ura, KHM_Vorin, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_InkNexus, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>-Zv_dTdL+ZxTZyZvETdAx</t>
+  </si>
+  <si>
+    <t>NPH_Sheo, NPH_Jin, SNC_Ura, ONE_PhrxArena, ONE_Nahiri</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +2528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1966,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C327" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,2392 +2549,3658 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
+        <v>504</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+        <v>504</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>508</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>443</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>295</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>322</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>274</v>
+        <v>313</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>291</v>
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>294</v>
+        <v>487</v>
+      </c>
+      <c r="C16" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>514</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
+        <v>337</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
+        <v>553</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>466</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
+        <v>467</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>503</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>293</v>
+        <v>504</v>
+      </c>
+      <c r="C29" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>438</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
+        <v>316</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
+        <v>309</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
+        <v>319</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>545</v>
       </c>
       <c r="C36" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>341</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>320</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>463</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>539</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C40" t="s">
-        <v>307</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>467</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C43" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>290</v>
+        <v>313</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>291</v>
+        <v>441</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>481</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>467</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>289</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>481</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>536</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>292</v>
+        <v>529</v>
+      </c>
+      <c r="C50" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>304</v>
+        <v>472</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
+        <v>340</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>523</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>444</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>547</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
-        <v>331</v>
+        <v>529</v>
       </c>
       <c r="C62" t="s">
-        <v>337</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>288</v>
+        <v>548</v>
+      </c>
+      <c r="C69" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" t="s">
-        <v>83</v>
+        <v>531</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
+        <v>309</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>331</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>339</v>
+        <v>316</v>
+      </c>
+      <c r="C72" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>429</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" t="s">
-        <v>93</v>
+        <v>343</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>343</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>353</v>
+        <v>316</v>
+      </c>
+      <c r="C75" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" t="s">
-        <v>95</v>
+        <v>498</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>422</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>284</v>
+        <v>401</v>
+      </c>
+      <c r="C78" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="C79" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>287</v>
+        <v>487</v>
+      </c>
+      <c r="C80" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>323</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>504</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
-      </c>
-      <c r="C83" t="s">
-        <v>268</v>
+        <v>504</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>302</v>
+        <v>504</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>286</v>
+        <v>529</v>
+      </c>
+      <c r="C85" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>521</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>285</v>
+        <v>504</v>
+      </c>
+      <c r="C86" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>529</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>397</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>539</v>
       </c>
       <c r="C95" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>451</v>
+      </c>
+      <c r="B96" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" t="s">
         <v>262</v>
-      </c>
-      <c r="B96" t="s">
-        <v>304</v>
-      </c>
-      <c r="C96" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>451</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>426</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>451</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>444</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>451</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>487</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>451</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>529</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>309</v>
+        <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="C101" t="s">
-        <v>310</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="B104" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C104" t="s">
-        <v>326</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
-        <v>331</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+      <c r="C105" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>361</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>359</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>405</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>405</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>401</v>
       </c>
       <c r="C109" t="s">
-        <v>61</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>400</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>401</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>546</v>
       </c>
       <c r="C114" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" t="s">
-        <v>139</v>
+        <v>331</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B118" t="s">
         <v>331</v>
       </c>
       <c r="C118" t="s">
-        <v>332</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>284</v>
+        <v>347</v>
+      </c>
+      <c r="C119" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
-        <v>143</v>
+        <v>342</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" t="s">
-        <v>144</v>
+        <v>339</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>146</v>
+        <v>380</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>147</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>330</v>
+        <v>67</v>
       </c>
       <c r="B125" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>332</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>327</v>
+        <v>69</v>
       </c>
       <c r="B126" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C126" t="s">
-        <v>329</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="B127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
-        <v>151</v>
+        <v>343</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>350</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>423</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
       <c r="C129" t="s">
-        <v>149</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B130" t="s">
-        <v>46</v>
-      </c>
-      <c r="C130" t="s">
-        <v>153</v>
+        <v>341</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="B131" t="s">
-        <v>29</v>
-      </c>
-      <c r="C131" t="s">
-        <v>30</v>
+        <v>346</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>487</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>283</v>
+        <v>551</v>
+      </c>
+      <c r="C133" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>518</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>304</v>
+        <v>502</v>
       </c>
       <c r="C135" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="B136" t="s">
-        <v>107</v>
+        <v>401</v>
       </c>
       <c r="C136" t="s">
-        <v>161</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="B137" t="s">
-        <v>107</v>
+        <v>366</v>
       </c>
       <c r="C137" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
-      </c>
-      <c r="C138" t="s">
-        <v>166</v>
+        <v>366</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="B139" t="s">
-        <v>78</v>
-      </c>
-      <c r="C139" t="s">
-        <v>165</v>
+        <v>307</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" t="s">
-        <v>164</v>
+        <v>331</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="B141" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="C141" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="C142" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>282</v>
+        <v>455</v>
+      </c>
+      <c r="C143" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>529</v>
       </c>
       <c r="C144" t="s">
-        <v>170</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B145" t="s">
-        <v>172</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>281</v>
+        <v>345</v>
+      </c>
+      <c r="C145" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="C146" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B149" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C149" t="s">
-        <v>345</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B150" t="s">
-        <v>358</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
+      </c>
+      <c r="C150" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>491</v>
       </c>
       <c r="B151" t="s">
-        <v>318</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>319</v>
+        <v>487</v>
+      </c>
+      <c r="C151" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>297</v>
+        <v>491</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="C152" t="s">
-        <v>132</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="B153" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="C153" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="B154" t="s">
-        <v>29</v>
+        <v>334</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="B155" t="s">
-        <v>175</v>
-      </c>
-      <c r="C155" t="s">
-        <v>33</v>
+        <v>401</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>550</v>
       </c>
       <c r="C156" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="B157" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="C157" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="C158" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="B159" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>280</v>
+        <v>310</v>
+      </c>
+      <c r="C159" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="B160" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="C160" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>278</v>
+        <v>487</v>
+      </c>
+      <c r="C161" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>184</v>
+        <v>389</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>385</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>279</v>
+        <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="B163" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="C163" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>343</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>189</v>
+        <v>372</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="B166" t="s">
-        <v>63</v>
-      </c>
-      <c r="C166" t="s">
-        <v>192</v>
+        <v>418</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="B167" t="s">
-        <v>252</v>
+        <v>418</v>
       </c>
       <c r="C167" t="s">
-        <v>254</v>
+        <v>421</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="C168" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>496</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>487</v>
       </c>
       <c r="C169" t="s">
-        <v>196</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
-      </c>
-      <c r="C170" t="s">
-        <v>198</v>
+        <v>342</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="B171" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="C171" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="B172" t="s">
-        <v>63</v>
+        <v>420</v>
       </c>
       <c r="C172" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="C173" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
       <c r="C174" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>362</v>
+        <v>100</v>
       </c>
       <c r="B175" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="C175" t="s">
-        <v>363</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>471</v>
       </c>
       <c r="C176" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="B177" t="s">
-        <v>210</v>
-      </c>
-      <c r="C177" t="s">
-        <v>211</v>
+        <v>504</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>209</v>
+        <v>542</v>
       </c>
       <c r="B178" t="s">
-        <v>210</v>
+        <v>529</v>
       </c>
       <c r="C178" t="s">
-        <v>212</v>
+        <v>543</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="B179" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="C179" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="B180" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>276</v>
+        <v>319</v>
+      </c>
+      <c r="C180" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="B181" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C181" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>349</v>
+        <v>102</v>
       </c>
       <c r="B182" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C182" t="s">
-        <v>350</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>127</v>
+        <v>374</v>
       </c>
       <c r="B183" t="s">
-        <v>320</v>
+        <v>434</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>214</v>
+        <v>408</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>433</v>
       </c>
       <c r="C184" t="s">
-        <v>215</v>
+        <v>409</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>216</v>
+        <v>403</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>401</v>
       </c>
       <c r="C185" t="s">
-        <v>217</v>
+        <v>404</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>216</v>
+        <v>493</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" t="s">
-        <v>143</v>
+        <v>487</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>493</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>529</v>
       </c>
       <c r="C187" t="s">
-        <v>142</v>
+        <v>543</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="B188" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="C188" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="C189" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B190" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="C190" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="B191" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B192" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="C192" t="s">
-        <v>257</v>
+        <v>112</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>485</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="C194" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="B195" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="C195" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="B196" t="s">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="C196" t="s">
-        <v>227</v>
+        <v>509</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>228</v>
+        <v>460</v>
       </c>
       <c r="B197" t="s">
-        <v>301</v>
+        <v>455</v>
       </c>
       <c r="C197" t="s">
-        <v>230</v>
+        <v>461</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>228</v>
+        <v>460</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>455</v>
       </c>
       <c r="C198" t="s">
-        <v>231</v>
+        <v>461</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="C199" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="B200" t="s">
-        <v>29</v>
-      </c>
-      <c r="C200" t="s">
-        <v>232</v>
+        <v>455</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="B201" t="s">
-        <v>252</v>
+        <v>426</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>273</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>342</v>
       </c>
       <c r="C202" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>317</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="C204" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="B205" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="C205" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="C206" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
       <c r="C207" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>334</v>
+        <v>121</v>
       </c>
       <c r="B208" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C208" t="s">
-        <v>335</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>334</v>
+        <v>121</v>
       </c>
       <c r="B209" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C209" t="s">
-        <v>355</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="B210" t="s">
-        <v>107</v>
-      </c>
-      <c r="C210" t="s">
-        <v>242</v>
+        <v>455</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>241</v>
+        <v>417</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" t="s">
-        <v>243</v>
+        <v>418</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>277</v>
+        <v>313</v>
+      </c>
+      <c r="C212" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>244</v>
+        <v>519</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
-      </c>
-      <c r="C213" t="s">
-        <v>111</v>
+        <v>504</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>244</v>
+        <v>519</v>
       </c>
       <c r="B214" t="s">
-        <v>63</v>
+        <v>529</v>
       </c>
       <c r="C214" t="s">
-        <v>110</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="B215" t="s">
-        <v>107</v>
-      </c>
-      <c r="C215" t="s">
-        <v>162</v>
+        <v>343</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>245</v>
+        <v>483</v>
       </c>
       <c r="B216" t="s">
-        <v>63</v>
-      </c>
-      <c r="C216" t="s">
-        <v>246</v>
+        <v>467</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="B217" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="C217" t="s">
-        <v>361</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>126</v>
+      </c>
+      <c r="B218" t="s">
+        <v>334</v>
+      </c>
+      <c r="C218" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>128</v>
+      </c>
+      <c r="B219" t="s">
+        <v>477</v>
+      </c>
+      <c r="C219" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>128</v>
+      </c>
+      <c r="B220" t="s">
+        <v>306</v>
+      </c>
+      <c r="C220" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>414</v>
+      </c>
+      <c r="B221" t="s">
+        <v>401</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>435</v>
+      </c>
+      <c r="B222" t="s">
+        <v>426</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" t="s">
+        <v>426</v>
+      </c>
+      <c r="C223" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>435</v>
+      </c>
+      <c r="B224" t="s">
+        <v>444</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>131</v>
+      </c>
+      <c r="B225" t="s">
+        <v>343</v>
+      </c>
+      <c r="C225" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>131</v>
+      </c>
+      <c r="B226" t="s">
+        <v>345</v>
+      </c>
+      <c r="C226" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>131</v>
+      </c>
+      <c r="B227" t="s">
+        <v>307</v>
+      </c>
+      <c r="C227" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>131</v>
+      </c>
+      <c r="B228" t="s">
+        <v>454</v>
+      </c>
+      <c r="C228" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>378</v>
+      </c>
+      <c r="B229" t="s">
+        <v>366</v>
+      </c>
+      <c r="C229" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>135</v>
+      </c>
+      <c r="B230" t="s">
+        <v>326</v>
+      </c>
+      <c r="C230" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>135</v>
+      </c>
+      <c r="B231" t="s">
+        <v>313</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>135</v>
+      </c>
+      <c r="B232" t="s">
+        <v>313</v>
+      </c>
+      <c r="C232" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>138</v>
+      </c>
+      <c r="B233" t="s">
+        <v>353</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>138</v>
+      </c>
+      <c r="B234" t="s">
+        <v>343</v>
+      </c>
+      <c r="C234" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>138</v>
+      </c>
+      <c r="B235" t="s">
+        <v>340</v>
+      </c>
+      <c r="C235" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>138</v>
+      </c>
+      <c r="B236" t="s">
+        <v>307</v>
+      </c>
+      <c r="C236" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>138</v>
+      </c>
+      <c r="B237" t="s">
+        <v>339</v>
+      </c>
+      <c r="C237" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>138</v>
+      </c>
+      <c r="B238" t="s">
+        <v>350</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>265</v>
+      </c>
+      <c r="B239" t="s">
+        <v>317</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>251</v>
+      </c>
+      <c r="B240" t="s">
+        <v>471</v>
+      </c>
+      <c r="C240" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>251</v>
+      </c>
+      <c r="B241" t="s">
+        <v>446</v>
+      </c>
+      <c r="C241" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>251</v>
+      </c>
+      <c r="B242" t="s">
+        <v>504</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>140</v>
+      </c>
+      <c r="B243" t="s">
+        <v>320</v>
+      </c>
+      <c r="C243" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>140</v>
+      </c>
+      <c r="B244" t="s">
+        <v>332</v>
+      </c>
+      <c r="C244" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>141</v>
+      </c>
+      <c r="B245" t="s">
+        <v>326</v>
+      </c>
+      <c r="C245" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>141</v>
+      </c>
+      <c r="B246" t="s">
+        <v>534</v>
+      </c>
+      <c r="C246" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>524</v>
+      </c>
+      <c r="B247" t="s">
+        <v>504</v>
+      </c>
+      <c r="C247" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>142</v>
+      </c>
+      <c r="B248" t="s">
+        <v>327</v>
+      </c>
+      <c r="C248" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>144</v>
+      </c>
+      <c r="B249" t="s">
+        <v>307</v>
+      </c>
+      <c r="C249" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>146</v>
+      </c>
+      <c r="B250" t="s">
+        <v>312</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>473</v>
+      </c>
+      <c r="B251" t="s">
+        <v>467</v>
+      </c>
+      <c r="C251" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>334</v>
+      </c>
+      <c r="C252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>147</v>
+      </c>
+      <c r="B253" t="s">
+        <v>326</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>147</v>
+      </c>
+      <c r="B254" t="s">
+        <v>326</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>147</v>
+      </c>
+      <c r="B255" t="s">
+        <v>326</v>
+      </c>
+      <c r="C255" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>149</v>
+      </c>
+      <c r="B256" t="s">
+        <v>315</v>
+      </c>
+      <c r="C256" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>151</v>
+      </c>
+      <c r="B257" t="s">
+        <v>310</v>
+      </c>
+      <c r="C257" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>412</v>
+      </c>
+      <c r="B258" t="s">
+        <v>401</v>
+      </c>
+      <c r="C258" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>153</v>
+      </c>
+      <c r="B259" t="s">
+        <v>343</v>
+      </c>
+      <c r="C259" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>153</v>
+      </c>
+      <c r="B260" t="s">
+        <v>316</v>
+      </c>
+      <c r="C260" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>391</v>
+      </c>
+      <c r="B261" t="s">
+        <v>385</v>
+      </c>
+      <c r="C261" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>506</v>
+      </c>
+      <c r="B262" t="s">
+        <v>504</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>155</v>
+      </c>
+      <c r="B263" t="s">
+        <v>309</v>
+      </c>
+      <c r="C263" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>155</v>
+      </c>
+      <c r="B264" t="s">
+        <v>467</v>
+      </c>
+      <c r="C264" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>157</v>
+      </c>
+      <c r="B265" t="s">
+        <v>313</v>
+      </c>
+      <c r="C265" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>393</v>
+      </c>
+      <c r="B266" t="s">
+        <v>385</v>
+      </c>
+      <c r="C266" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>159</v>
+      </c>
+      <c r="B267" t="s">
+        <v>345</v>
+      </c>
+      <c r="C267" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>161</v>
+      </c>
+      <c r="B268" t="s">
+        <v>354</v>
+      </c>
+      <c r="C268" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>161</v>
+      </c>
+      <c r="B269" t="s">
+        <v>343</v>
+      </c>
+      <c r="C269" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>161</v>
+      </c>
+      <c r="B270" t="s">
+        <v>340</v>
+      </c>
+      <c r="C270" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>427</v>
+      </c>
+      <c r="B271" t="s">
+        <v>426</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>165</v>
+      </c>
+      <c r="B272" t="s">
+        <v>333</v>
+      </c>
+      <c r="C272" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>301</v>
+      </c>
+      <c r="B273" t="s">
+        <v>355</v>
+      </c>
+      <c r="C273" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>167</v>
+      </c>
+      <c r="B274" t="s">
+        <v>313</v>
+      </c>
+      <c r="C274" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>167</v>
+      </c>
+      <c r="B275" t="s">
+        <v>426</v>
+      </c>
+      <c r="C275" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>512</v>
+      </c>
+      <c r="B276" t="s">
+        <v>504</v>
+      </c>
+      <c r="C276" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>169</v>
+      </c>
+      <c r="B277" t="s">
+        <v>321</v>
+      </c>
+      <c r="C277" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>169</v>
+      </c>
+      <c r="B278" t="s">
+        <v>364</v>
+      </c>
+      <c r="C278" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>169</v>
+      </c>
+      <c r="B279" t="s">
+        <v>314</v>
+      </c>
+      <c r="C279" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>169</v>
+      </c>
+      <c r="B280" t="s">
+        <v>307</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>169</v>
+      </c>
+      <c r="B281" t="s">
+        <v>529</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>469</v>
+      </c>
+      <c r="B282" t="s">
+        <v>467</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>296</v>
+      </c>
+      <c r="B283" t="s">
+        <v>339</v>
+      </c>
+      <c r="C283" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>290</v>
+      </c>
+      <c r="B284" t="s">
+        <v>356</v>
+      </c>
+      <c r="C284" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>395</v>
+      </c>
+      <c r="B285" t="s">
+        <v>385</v>
+      </c>
+      <c r="C285" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>98</v>
+      </c>
+      <c r="B286" t="s">
+        <v>357</v>
+      </c>
+      <c r="C286" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>173</v>
+      </c>
+      <c r="B287" t="s">
+        <v>309</v>
+      </c>
+      <c r="C287" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>175</v>
+      </c>
+      <c r="B288" t="s">
+        <v>313</v>
+      </c>
+      <c r="C288" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>175</v>
+      </c>
+      <c r="B289" t="s">
+        <v>308</v>
+      </c>
+      <c r="C289" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>175</v>
+      </c>
+      <c r="B290" t="s">
+        <v>308</v>
+      </c>
+      <c r="C290" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>177</v>
+      </c>
+      <c r="B291" t="s">
+        <v>532</v>
+      </c>
+      <c r="C291" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>177</v>
+      </c>
+      <c r="B292" t="s">
+        <v>312</v>
+      </c>
+      <c r="C292" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>363</v>
+      </c>
+      <c r="B293" t="s">
+        <v>331</v>
+      </c>
+      <c r="C293" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>210</v>
+      </c>
+      <c r="B294" t="s">
+        <v>316</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>210</v>
+      </c>
+      <c r="B295" t="s">
+        <v>316</v>
+      </c>
+      <c r="C295" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>210</v>
+      </c>
+      <c r="B296" t="s">
+        <v>455</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>464</v>
+      </c>
+      <c r="B297" t="s">
+        <v>455</v>
+      </c>
+      <c r="C297" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>180</v>
+      </c>
+      <c r="B298" t="s">
+        <v>313</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>180</v>
+      </c>
+      <c r="B299" t="s">
+        <v>313</v>
+      </c>
+      <c r="C299" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>180</v>
+      </c>
+      <c r="B300" t="s">
+        <v>487</v>
+      </c>
+      <c r="C300" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>180</v>
+      </c>
+      <c r="B301" t="s">
+        <v>504</v>
+      </c>
+      <c r="C301" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>180</v>
+      </c>
+      <c r="B302" t="s">
+        <v>529</v>
+      </c>
+      <c r="C302" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>516</v>
+      </c>
+      <c r="B303" t="s">
+        <v>504</v>
+      </c>
+      <c r="C303" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>181</v>
+      </c>
+      <c r="B304" t="s">
+        <v>328</v>
+      </c>
+      <c r="C304" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>181</v>
+      </c>
+      <c r="B305" t="s">
+        <v>487</v>
+      </c>
+      <c r="C305" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>475</v>
+      </c>
+      <c r="B306" t="s">
+        <v>467</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>183</v>
+      </c>
+      <c r="B307" t="s">
+        <v>312</v>
+      </c>
+      <c r="C307" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>185</v>
+      </c>
+      <c r="B308" t="s">
+        <v>501</v>
+      </c>
+      <c r="C308" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>185</v>
+      </c>
+      <c r="B309" t="s">
+        <v>331</v>
+      </c>
+      <c r="C309" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>185</v>
+      </c>
+      <c r="B310" t="s">
+        <v>312</v>
+      </c>
+      <c r="C310" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>185</v>
+      </c>
+      <c r="B311" t="s">
+        <v>320</v>
+      </c>
+      <c r="C311" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>185</v>
+      </c>
+      <c r="B312" t="s">
+        <v>535</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>223</v>
+      </c>
+      <c r="B313" t="s">
+        <v>316</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>478</v>
+      </c>
+      <c r="B314" t="s">
+        <v>467</v>
+      </c>
+      <c r="C314" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>224</v>
+      </c>
+      <c r="B315" t="s">
+        <v>312</v>
+      </c>
+      <c r="C315" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>528</v>
+      </c>
+      <c r="B316" t="s">
+        <v>529</v>
+      </c>
+      <c r="C316" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>190</v>
+      </c>
+      <c r="B317" t="s">
+        <v>314</v>
+      </c>
+      <c r="C317" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>190</v>
+      </c>
+      <c r="B318" t="s">
+        <v>314</v>
+      </c>
+      <c r="C318" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>192</v>
+      </c>
+      <c r="B319" t="s">
+        <v>407</v>
+      </c>
+      <c r="C319" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>194</v>
+      </c>
+      <c r="B320" t="s">
+        <v>308</v>
+      </c>
+      <c r="C320" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>194</v>
+      </c>
+      <c r="B321" t="s">
+        <v>343</v>
+      </c>
+      <c r="C321" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>370</v>
+      </c>
+      <c r="B322" t="s">
+        <v>366</v>
+      </c>
+      <c r="C322" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>276</v>
+      </c>
+      <c r="B323" t="s">
+        <v>342</v>
+      </c>
+      <c r="C323" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>276</v>
+      </c>
+      <c r="B324" t="s">
+        <v>339</v>
+      </c>
+      <c r="C324" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>197</v>
+      </c>
+      <c r="B325" t="s">
+        <v>306</v>
+      </c>
+      <c r="C325" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>197</v>
+      </c>
+      <c r="B326" t="s">
+        <v>309</v>
+      </c>
+      <c r="C326" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>197</v>
+      </c>
+      <c r="B327" t="s">
+        <v>340</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>200</v>
+      </c>
+      <c r="B328" t="s">
+        <v>340</v>
+      </c>
+      <c r="C328" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>200</v>
+      </c>
+      <c r="B329" t="s">
+        <v>343</v>
+      </c>
+      <c r="C329" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>201</v>
+      </c>
+      <c r="B330" t="s">
+        <v>306</v>
+      </c>
+      <c r="C330" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>201</v>
+      </c>
+      <c r="B331" t="s">
+        <v>343</v>
+      </c>
+      <c r="C331" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>201</v>
+      </c>
+      <c r="B332" t="s">
+        <v>350</v>
+      </c>
+      <c r="C332" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C217">
-    <sortCondition ref="A1:A217"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C332">
+    <sortCondition ref="A1:A332"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/phrx_words.xlsx
+++ b/phrx_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Pictures\Phyrexian\phyrexian_search_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A4C1C-E9F7-4E73-A98F-0FD138386D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3391A950-8D37-44B3-84CF-F92D8A2E5101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="575">
   <si>
     <t>Ability</t>
   </si>
@@ -1007,18 +1007,12 @@
     <t>KHM_Vorin, DMU_Ajani</t>
   </si>
   <si>
-    <t>NPH_Norn, NPH_Ura, NPH_Sheo, NPH_Jin, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo</t>
-  </si>
-  <si>
     <t>NPH_Norn, NPH_Ura, NPH_Sheo, NPH_Jin, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo, DMU_Ajani</t>
   </si>
   <si>
     <t>KHM_Vorin</t>
   </si>
   <si>
-    <t>NPH_Norn, NPH_Ura, NPH_Jin, NPH_Sheo, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo</t>
-  </si>
-  <si>
     <t>NPH_Vorin, KHM_Vorin</t>
   </si>
   <si>
@@ -1274,9 +1268,6 @@
     <t>Return</t>
   </si>
   <si>
-    <t>NqF-ZF+NxZxOTdQTd</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -1322,9 +1313,6 @@
     <t>-ZF-ZG_d</t>
   </si>
   <si>
-    <t>NPH_Norn, NPH_Ura, NPH_Sheo, NPH_Jin, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, C19_Krrik</t>
-  </si>
-  <si>
     <t>Promo_PsyCrawl, C19_Krrik</t>
   </si>
   <si>
@@ -1695,6 +1683,81 @@
   </si>
   <si>
     <t>NPH_Sheo, NPH_Jin, SNC_Ura, ONE_PhrxArena, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>Produce</t>
+  </si>
+  <si>
+    <t>TeE-ZwGZdGT</t>
+  </si>
+  <si>
+    <t>Come</t>
+  </si>
+  <si>
+    <t>THAxZy</t>
+  </si>
+  <si>
+    <t>THAxHEZy</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>NyF-ZOZxMvNwETd</t>
+  </si>
+  <si>
+    <t>Stun</t>
+  </si>
+  <si>
+    <t>ZwEZyNwArQNeGZv</t>
+  </si>
+  <si>
+    <t>ONE_Article, ONE_Norn</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_Sheo, NPH_Jin, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo, ONE_Norn, C19_Krrik</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_Sheo, NPH_Jin, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo , ONE_Norn, C19_Krrik</t>
+  </si>
+  <si>
+    <t>NPH_Norn, NPH_Ura, NPH_Jin, NPH_Sheo, NPH_Vorin, KHM_Vorin, NEO_Jin, SNC_Ura, DMU_Sheo, ONE_Norn</t>
+  </si>
+  <si>
+    <t>ONE_Norn</t>
+  </si>
+  <si>
+    <t>ZxVK-ZwNwNxONwZx</t>
+  </si>
+  <si>
+    <t>NEO_Tami, ONE_Norn</t>
+  </si>
+  <si>
+    <t>V-ZLMvZxGVQV</t>
+  </si>
+  <si>
+    <t>V-ZLMvZxGVV</t>
+  </si>
+  <si>
+    <t>ONE_Lukka, ONE_Norn</t>
+  </si>
+  <si>
+    <t>-ZwLMwGNd</t>
+  </si>
+  <si>
+    <t>NqF-ZwLMwGNd</t>
+  </si>
+  <si>
+    <t>Zx_dQNwZx</t>
+  </si>
+  <si>
+    <t>NqF-ZF+NxZvOTdQTd</t>
+  </si>
+  <si>
+    <t>Bring</t>
+  </si>
+  <si>
+    <t>ZvOTdLTd</t>
   </si>
 </sst>
 </file>
@@ -2536,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C332"/>
+  <dimension ref="A1:C345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C327" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2560,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2571,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2582,32 +2645,32 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="C4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2615,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -2623,35 +2686,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C9" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2667,13 +2730,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" t="s">
         <v>358</v>
-      </c>
-      <c r="B12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2692,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2703,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
         <v>257</v>
@@ -2711,35 +2774,35 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B17" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" t="s">
         <v>444</v>
-      </c>
-      <c r="C17" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C18" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2747,7 +2810,7 @@
         <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
         <v>99</v>
@@ -2758,7 +2821,7 @@
         <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C20" t="s">
         <v>304</v>
@@ -2788,35 +2851,35 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>514</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="C23" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>510</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>500</v>
       </c>
       <c r="C24" t="s">
-        <v>377</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="B25" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>249</v>
+        <v>364</v>
+      </c>
+      <c r="C25" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2824,109 +2887,109 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>553</v>
+        <v>335</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" t="s">
-        <v>288</v>
+        <v>549</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>466</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>468</v>
+        <v>336</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="B29" t="s">
-        <v>504</v>
-      </c>
-      <c r="C29" t="s">
-        <v>505</v>
+        <v>463</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="B30" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="C30" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C31" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>382</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>228</v>
+        <v>383</v>
+      </c>
+      <c r="C32" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
-        <v>340</v>
-      </c>
-      <c r="C33" t="s">
-        <v>330</v>
+        <v>316</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>573</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>245</v>
+        <v>306</v>
+      </c>
+      <c r="C34" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>248</v>
+        <v>338</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2934,10 +2997,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>545</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
+        <v>309</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2945,10 +3008,10 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>320</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
+        <v>319</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2956,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>463</v>
+        <v>541</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2967,10 +3030,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>539</v>
+        <v>320</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2978,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>459</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2989,10 +3052,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>334</v>
+        <v>535</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -3000,32 +3063,32 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>467</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
-        <v>479</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>463</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -3033,329 +3096,329 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>312</v>
+        <v>437</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>481</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s">
-        <v>467</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>482</v>
+        <v>306</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>481</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="B50" t="s">
-        <v>529</v>
-      </c>
-      <c r="C50" t="s">
-        <v>537</v>
+        <v>463</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s">
-        <v>472</v>
+        <v>313</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>247</v>
+        <v>525</v>
+      </c>
+      <c r="C52" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>552</v>
       </c>
       <c r="B53" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>552</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>444</v>
-      </c>
-      <c r="C56" t="s">
-        <v>449</v>
+        <v>338</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>342</v>
+        <v>440</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
         <v>313</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>529</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
-        <v>543</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>543</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>563</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="B65" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="C65" t="s">
-        <v>442</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C66" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="B67" t="s">
-        <v>307</v>
+        <v>525</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>548</v>
+        <v>323</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>531</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>244</v>
+        <v>423</v>
+      </c>
+      <c r="C70" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s">
-        <v>309</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>245</v>
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>429</v>
+        <v>313</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>343</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>243</v>
+        <v>544</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -3363,10 +3426,10 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
-      </c>
-      <c r="C75" t="s">
-        <v>214</v>
+        <v>527</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -3374,10 +3437,10 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>498</v>
+        <v>309</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -3385,10 +3448,10 @@
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="C77" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3396,10 +3459,10 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>401</v>
+        <v>561</v>
       </c>
       <c r="C78" t="s">
-        <v>406</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3407,10 +3470,10 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>444</v>
-      </c>
-      <c r="C79" t="s">
-        <v>453</v>
+        <v>341</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -3418,10 +3481,10 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>487</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s">
-        <v>492</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3429,10 +3492,10 @@
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>511</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3440,10 +3503,10 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>504</v>
+        <v>419</v>
       </c>
       <c r="C82" t="s">
-        <v>515</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3451,10 +3514,10 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>504</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>520</v>
+        <v>399</v>
+      </c>
+      <c r="C83" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -3462,10 +3525,10 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="C84" t="s">
-        <v>525</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -3473,714 +3536,714 @@
         <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="C85" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>521</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>504</v>
-      </c>
-      <c r="C86" t="s">
-        <v>522</v>
+        <v>500</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>343</v>
+        <v>500</v>
       </c>
       <c r="C87" t="s">
-        <v>43</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>322</v>
-      </c>
-      <c r="C88" t="s">
-        <v>206</v>
+        <v>500</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>540</v>
+        <v>40</v>
       </c>
       <c r="B90" t="s">
+        <v>525</v>
+      </c>
+      <c r="C90" t="s">
         <v>529</v>
-      </c>
-      <c r="C90" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>397</v>
+        <v>517</v>
       </c>
       <c r="B91" t="s">
-        <v>398</v>
+        <v>500</v>
       </c>
       <c r="C91" t="s">
-        <v>399</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="B93" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>536</v>
       </c>
       <c r="B95" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="B96" t="s">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>451</v>
+        <v>212</v>
       </c>
       <c r="B97" t="s">
-        <v>426</v>
+        <v>316</v>
       </c>
       <c r="C97" t="s">
-        <v>452</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>451</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="C98" t="s">
-        <v>453</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>451</v>
+        <v>46</v>
       </c>
       <c r="B99" t="s">
-        <v>487</v>
+        <v>320</v>
       </c>
       <c r="C99" t="s">
-        <v>499</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>451</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C100" t="s">
-        <v>537</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>447</v>
       </c>
       <c r="B101" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>447</v>
       </c>
       <c r="B102" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="C102" t="s">
-        <v>51</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="B103" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="C103" t="s">
-        <v>369</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>219</v>
+        <v>447</v>
       </c>
       <c r="B104" t="s">
-        <v>316</v>
+        <v>483</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>278</v>
+        <v>447</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>525</v>
       </c>
       <c r="C105" t="s">
-        <v>279</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>361</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C107" t="s">
-        <v>362</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="C108" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>405</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="C109" t="s">
-        <v>411</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="B110" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="C110" t="s">
-        <v>402</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="B111" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C111" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="C113" t="s">
-        <v>305</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="B114" t="s">
-        <v>546</v>
+        <v>399</v>
       </c>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="C115" t="s">
-        <v>59</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>331</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>242</v>
+        <v>343</v>
+      </c>
+      <c r="C117" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C118" t="s">
-        <v>58</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B119" t="s">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>281</v>
+        <v>320</v>
+      </c>
+      <c r="C120" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B121" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>349</v>
-      </c>
-      <c r="C122" t="s">
-        <v>66</v>
+        <v>329</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>292</v>
+        <v>56</v>
       </c>
       <c r="B123" t="s">
-        <v>339</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
+      </c>
+      <c r="C123" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>380</v>
+        <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C124" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
-      </c>
-      <c r="C125" t="s">
-        <v>68</v>
+        <v>340</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B126" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C126" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>343</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>238</v>
+        <v>347</v>
+      </c>
+      <c r="C127" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
-      </c>
-      <c r="C128" t="s">
-        <v>299</v>
+        <v>337</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="B129" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="C129" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>341</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>241</v>
+        <v>307</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="B131" t="s">
-        <v>346</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>268</v>
+        <v>341</v>
+      </c>
+      <c r="C131" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s">
-        <v>487</v>
-      </c>
-      <c r="C132" t="s">
-        <v>499</v>
+        <v>341</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s">
-        <v>551</v>
+        <v>348</v>
       </c>
       <c r="C133" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>73</v>
+        <v>420</v>
       </c>
       <c r="B134" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
       <c r="C134" t="s">
-        <v>222</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B135" t="s">
-        <v>502</v>
-      </c>
-      <c r="C135" t="s">
-        <v>215</v>
+        <v>339</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
-        <v>401</v>
-      </c>
-      <c r="C136" t="s">
-        <v>410</v>
+        <v>344</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>366</v>
+        <v>483</v>
       </c>
       <c r="C137" t="s">
-        <v>367</v>
+        <v>495</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>382</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>366</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>383</v>
+        <v>547</v>
+      </c>
+      <c r="C138" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B139" t="s">
-        <v>307</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>240</v>
+        <v>514</v>
+      </c>
+      <c r="C139" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B140" t="s">
-        <v>331</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>239</v>
+        <v>498</v>
+      </c>
+      <c r="C140" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="C141" t="s">
-        <v>77</v>
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="B142" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="C142" t="s">
-        <v>78</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="B143" t="s">
-        <v>455</v>
-      </c>
-      <c r="C143" t="s">
-        <v>462</v>
+        <v>364</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B144" t="s">
-        <v>529</v>
-      </c>
-      <c r="C144" t="s">
-        <v>544</v>
+        <v>307</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B145" t="s">
-        <v>345</v>
-      </c>
-      <c r="C145" t="s">
-        <v>81</v>
+        <v>329</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B146" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C146" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B147" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C147" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B148" t="s">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="C148" t="s">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B149" t="s">
-        <v>345</v>
+        <v>525</v>
       </c>
       <c r="C149" t="s">
-        <v>55</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -4188,2017 +4251,2160 @@
         <v>79</v>
       </c>
       <c r="B150" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C150" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
-        <v>487</v>
+        <v>306</v>
       </c>
       <c r="C151" t="s">
-        <v>492</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="B152" t="s">
-        <v>504</v>
+        <v>338</v>
       </c>
       <c r="C152" t="s">
-        <v>515</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="B153" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="C153" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C154" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="B155" t="s">
-        <v>401</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>415</v>
+        <v>340</v>
+      </c>
+      <c r="C155" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>84</v>
+        <v>487</v>
       </c>
       <c r="B156" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>488</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>84</v>
+        <v>487</v>
       </c>
       <c r="B157" t="s">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="C157" t="s">
-        <v>86</v>
+        <v>511</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>87</v>
+        <v>555</v>
       </c>
       <c r="B158" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C158" t="s">
-        <v>88</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C159" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="B160" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="C160" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="B161" t="s">
-        <v>487</v>
-      </c>
-      <c r="C161" t="s">
-        <v>492</v>
+        <v>399</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>389</v>
+        <v>84</v>
       </c>
       <c r="B162" t="s">
-        <v>385</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>390</v>
+        <v>546</v>
+      </c>
+      <c r="C162" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C164" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>372</v>
+        <v>89</v>
       </c>
       <c r="B165" t="s">
-        <v>425</v>
+        <v>310</v>
       </c>
       <c r="C165" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>416</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
-        <v>418</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
+      </c>
+      <c r="C166" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>416</v>
+        <v>258</v>
       </c>
       <c r="B167" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="C167" t="s">
-        <v>421</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>267</v>
+        <v>387</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
-      </c>
-      <c r="C168" t="s">
-        <v>270</v>
+        <v>383</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>496</v>
+        <v>91</v>
       </c>
       <c r="B169" t="s">
-        <v>487</v>
+        <v>308</v>
       </c>
       <c r="C169" t="s">
-        <v>497</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>282</v>
+        <v>341</v>
+      </c>
+      <c r="C170" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>95</v>
+        <v>370</v>
       </c>
       <c r="B171" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="C171" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>95</v>
+        <v>413</v>
       </c>
       <c r="B172" t="s">
-        <v>420</v>
-      </c>
-      <c r="C172" t="s">
-        <v>96</v>
+        <v>415</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>95</v>
+        <v>413</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="C173" t="s">
-        <v>97</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="B175" t="s">
-        <v>313</v>
+        <v>483</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>493</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="B176" t="s">
-        <v>471</v>
-      </c>
-      <c r="C176" t="s">
-        <v>101</v>
+        <v>340</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B177" t="s">
-        <v>504</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>520</v>
+        <v>333</v>
+      </c>
+      <c r="C177" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>542</v>
+        <v>95</v>
       </c>
       <c r="B178" t="s">
-        <v>529</v>
+        <v>417</v>
       </c>
       <c r="C178" t="s">
-        <v>543</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B179" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C179" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B180" t="s">
-        <v>319</v>
+        <v>560</v>
       </c>
       <c r="C180" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C181" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B182" t="s">
-        <v>331</v>
+        <v>467</v>
       </c>
       <c r="C182" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="B183" t="s">
-        <v>434</v>
-      </c>
-      <c r="C183" t="s">
-        <v>375</v>
+        <v>500</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>408</v>
+        <v>538</v>
       </c>
       <c r="B184" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="C184" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>403</v>
+        <v>102</v>
       </c>
       <c r="B185" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="C185" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>493</v>
+        <v>102</v>
       </c>
       <c r="B186" t="s">
-        <v>487</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>494</v>
+        <v>319</v>
+      </c>
+      <c r="C186" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>493</v>
+        <v>102</v>
       </c>
       <c r="B187" t="s">
-        <v>529</v>
+        <v>316</v>
       </c>
       <c r="C187" t="s">
-        <v>543</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B188" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C188" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="C189" t="s">
-        <v>108</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="B190" t="s">
-        <v>342</v>
+        <v>429</v>
       </c>
       <c r="C190" t="s">
-        <v>274</v>
+        <v>407</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>109</v>
+        <v>401</v>
       </c>
       <c r="B191" t="s">
-        <v>343</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>238</v>
+        <v>399</v>
+      </c>
+      <c r="C191" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>110</v>
+        <v>489</v>
       </c>
       <c r="B192" t="s">
-        <v>308</v>
-      </c>
-      <c r="C192" t="s">
-        <v>112</v>
+        <v>483</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>110</v>
+        <v>489</v>
       </c>
       <c r="B193" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="C193" t="s">
-        <v>114</v>
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="C194" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B195" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="C195" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B196" t="s">
-        <v>504</v>
+        <v>340</v>
       </c>
       <c r="C196" t="s">
-        <v>509</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>460</v>
+        <v>109</v>
       </c>
       <c r="B197" t="s">
-        <v>455</v>
-      </c>
-      <c r="C197" t="s">
-        <v>461</v>
+        <v>341</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="B198" t="s">
-        <v>455</v>
+        <v>308</v>
       </c>
       <c r="C198" t="s">
-        <v>461</v>
+        <v>112</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B199" t="s">
-        <v>340</v>
+        <v>481</v>
       </c>
       <c r="C199" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B200" t="s">
-        <v>455</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>456</v>
+        <v>308</v>
+      </c>
+      <c r="C200" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>431</v>
+        <v>110</v>
       </c>
       <c r="B201" t="s">
-        <v>426</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>432</v>
+        <v>308</v>
+      </c>
+      <c r="C201" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="B202" t="s">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="C202" t="s">
-        <v>274</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="B203" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="C203" t="s">
-        <v>303</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>271</v>
+        <v>456</v>
       </c>
       <c r="B204" t="s">
-        <v>318</v>
+        <v>451</v>
       </c>
       <c r="C204" t="s">
-        <v>272</v>
+        <v>457</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B205" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C205" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B206" t="s">
-        <v>340</v>
-      </c>
-      <c r="C206" t="s">
-        <v>119</v>
+        <v>451</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>117</v>
+        <v>427</v>
       </c>
       <c r="B207" t="s">
-        <v>340</v>
-      </c>
-      <c r="C207" t="s">
-        <v>118</v>
+        <v>423</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="B208" t="s">
-        <v>314</v>
+        <v>559</v>
       </c>
       <c r="C208" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="B209" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="B210" t="s">
-        <v>455</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>457</v>
+        <v>318</v>
+      </c>
+      <c r="C210" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>117</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>419</v>
+        <v>312</v>
+      </c>
+      <c r="C211" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B212" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C212" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>519</v>
+        <v>117</v>
       </c>
       <c r="B213" t="s">
-        <v>504</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>520</v>
+        <v>338</v>
+      </c>
+      <c r="C213" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>519</v>
+        <v>121</v>
       </c>
       <c r="B214" t="s">
-        <v>529</v>
+        <v>314</v>
       </c>
       <c r="C214" t="s">
-        <v>543</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B215" t="s">
-        <v>343</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>237</v>
+        <v>320</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>483</v>
+        <v>121</v>
       </c>
       <c r="B216" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>126</v>
+        <v>414</v>
       </c>
       <c r="B217" t="s">
-        <v>325</v>
-      </c>
-      <c r="C217" t="s">
-        <v>127</v>
+        <v>415</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B218" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C218" t="s">
-        <v>262</v>
+        <v>124</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>128</v>
+        <v>515</v>
       </c>
       <c r="B219" t="s">
-        <v>477</v>
-      </c>
-      <c r="C219" t="s">
-        <v>129</v>
+        <v>500</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>128</v>
+        <v>515</v>
       </c>
       <c r="B220" t="s">
-        <v>306</v>
+        <v>525</v>
       </c>
       <c r="C220" t="s">
-        <v>130</v>
+        <v>539</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>414</v>
+        <v>125</v>
       </c>
       <c r="B221" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>415</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B222" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>126</v>
       </c>
       <c r="B223" t="s">
-        <v>426</v>
+        <v>324</v>
       </c>
       <c r="C223" t="s">
-        <v>437</v>
+        <v>127</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>435</v>
+        <v>126</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>450</v>
+        <v>332</v>
+      </c>
+      <c r="C224" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B225" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="C225" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B226" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="C226" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="B227" t="s">
-        <v>307</v>
-      </c>
-      <c r="C227" t="s">
-        <v>132</v>
+        <v>399</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>131</v>
+        <v>431</v>
       </c>
       <c r="B228" t="s">
-        <v>454</v>
-      </c>
-      <c r="C228" t="s">
-        <v>289</v>
+        <v>423</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="B229" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="C229" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>135</v>
+        <v>431</v>
       </c>
       <c r="B230" t="s">
-        <v>326</v>
-      </c>
-      <c r="C230" t="s">
-        <v>136</v>
+        <v>440</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B231" t="s">
-        <v>313</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>236</v>
+        <v>341</v>
+      </c>
+      <c r="C231" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B232" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="C232" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B233" t="s">
-        <v>353</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>235</v>
+        <v>307</v>
+      </c>
+      <c r="C233" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B234" t="s">
-        <v>343</v>
+        <v>450</v>
       </c>
       <c r="C234" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>138</v>
+        <v>376</v>
       </c>
       <c r="B235" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="C235" t="s">
-        <v>118</v>
+        <v>377</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B236" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C236" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B237" t="s">
-        <v>339</v>
-      </c>
-      <c r="C237" t="s">
-        <v>286</v>
+        <v>565</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B238" t="s">
-        <v>350</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>298</v>
+        <v>313</v>
+      </c>
+      <c r="C238" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="B239" t="s">
-        <v>317</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>266</v>
+        <v>563</v>
+      </c>
+      <c r="C239" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="B240" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
       <c r="C240" t="s">
-        <v>101</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B241" t="s">
-        <v>446</v>
-      </c>
-      <c r="C241" t="s">
-        <v>252</v>
+        <v>351</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B242" t="s">
-        <v>504</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>520</v>
+        <v>341</v>
+      </c>
+      <c r="C242" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B243" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B244" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B245" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C245" t="s">
-        <v>458</v>
+        <v>286</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B246" t="s">
-        <v>534</v>
-      </c>
-      <c r="C246" t="s">
-        <v>459</v>
+        <v>348</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>524</v>
+        <v>265</v>
       </c>
       <c r="B247" t="s">
-        <v>504</v>
-      </c>
-      <c r="C247" t="s">
-        <v>525</v>
+        <v>317</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
       <c r="C248" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>307</v>
+        <v>442</v>
       </c>
       <c r="C249" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>234</v>
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>473</v>
+        <v>140</v>
       </c>
       <c r="B251" t="s">
-        <v>467</v>
+        <v>320</v>
       </c>
       <c r="C251" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="B252" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C252" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B253" t="s">
-        <v>326</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>232</v>
+        <v>325</v>
+      </c>
+      <c r="C253" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B254" t="s">
-        <v>326</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>233</v>
+        <v>530</v>
+      </c>
+      <c r="C254" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
       <c r="B255" t="s">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="C255" t="s">
-        <v>148</v>
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B256" t="s">
-        <v>315</v>
+        <v>562</v>
       </c>
       <c r="C256" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B257" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C257" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>412</v>
+        <v>550</v>
       </c>
       <c r="B258" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="C258" t="s">
-        <v>413</v>
+        <v>551</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B259" t="s">
-        <v>343</v>
-      </c>
-      <c r="C259" t="s">
-        <v>154</v>
+        <v>312</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>153</v>
+        <v>469</v>
       </c>
       <c r="B260" t="s">
-        <v>316</v>
+        <v>463</v>
       </c>
       <c r="C260" t="s">
-        <v>208</v>
+        <v>470</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>391</v>
+        <v>253</v>
       </c>
       <c r="B261" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="C261" t="s">
-        <v>392</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>506</v>
+        <v>147</v>
       </c>
       <c r="B262" t="s">
-        <v>504</v>
+        <v>325</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>507</v>
+        <v>232</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B263" t="s">
-        <v>309</v>
-      </c>
-      <c r="C263" t="s">
-        <v>156</v>
+        <v>325</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B264" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="C264" t="s">
-        <v>480</v>
+        <v>148</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B265" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C265" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>393</v>
+        <v>151</v>
       </c>
       <c r="B266" t="s">
-        <v>385</v>
+        <v>310</v>
       </c>
       <c r="C266" t="s">
-        <v>394</v>
+        <v>152</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="B267" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="C267" t="s">
-        <v>160</v>
+        <v>572</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B268" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C268" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B269" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C269" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="B270" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="C270" t="s">
-        <v>162</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="B271" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B272" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C272" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="B273" t="s">
-        <v>355</v>
+        <v>463</v>
       </c>
       <c r="C273" t="s">
-        <v>302</v>
+        <v>476</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B274" t="s">
         <v>313</v>
       </c>
       <c r="C274" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
       <c r="B275" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="C275" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>512</v>
+        <v>159</v>
       </c>
       <c r="B276" t="s">
-        <v>504</v>
+        <v>343</v>
       </c>
       <c r="C276" t="s">
-        <v>513</v>
+        <v>160</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B277" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="C277" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B278" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C278" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B279" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C279" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="B280" t="s">
-        <v>307</v>
+        <v>423</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>230</v>
+        <v>425</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B281" t="s">
-        <v>529</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>552</v>
+        <v>331</v>
+      </c>
+      <c r="C281" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>469</v>
+        <v>301</v>
       </c>
       <c r="B282" t="s">
-        <v>467</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>470</v>
+        <v>353</v>
+      </c>
+      <c r="C282" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="B283" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C283" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="B284" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="C284" t="s">
-        <v>291</v>
+        <v>436</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>395</v>
+        <v>508</v>
       </c>
       <c r="B285" t="s">
-        <v>385</v>
+        <v>500</v>
       </c>
       <c r="C285" t="s">
-        <v>396</v>
+        <v>509</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="B286" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C286" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B287" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="C287" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B288" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C288" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B289" t="s">
-        <v>308</v>
-      </c>
-      <c r="C289" t="s">
-        <v>112</v>
+        <v>307</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B290" t="s">
-        <v>308</v>
-      </c>
-      <c r="C290" t="s">
-        <v>111</v>
+        <v>525</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>177</v>
+        <v>465</v>
       </c>
       <c r="B291" t="s">
-        <v>532</v>
-      </c>
-      <c r="C291" t="s">
-        <v>178</v>
+        <v>463</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>177</v>
+        <v>557</v>
       </c>
       <c r="B292" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C292" t="s">
-        <v>120</v>
+        <v>558</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C293" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="B294" t="s">
-        <v>316</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>229</v>
+        <v>354</v>
+      </c>
+      <c r="C294" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="B295" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="C295" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="B296" t="s">
-        <v>455</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>229</v>
+        <v>355</v>
+      </c>
+      <c r="C296" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>464</v>
+        <v>173</v>
       </c>
       <c r="B297" t="s">
-        <v>455</v>
+        <v>309</v>
       </c>
       <c r="C297" t="s">
-        <v>465</v>
+        <v>174</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B298" t="s">
         <v>313</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B299" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C299" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B300" t="s">
-        <v>487</v>
+        <v>308</v>
       </c>
       <c r="C300" t="s">
-        <v>492</v>
+        <v>111</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B301" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="C301" t="s">
-        <v>515</v>
+        <v>178</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B302" t="s">
-        <v>529</v>
+        <v>312</v>
       </c>
       <c r="C302" t="s">
-        <v>549</v>
+        <v>120</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B303" t="s">
-        <v>504</v>
+        <v>329</v>
       </c>
       <c r="C303" t="s">
-        <v>517</v>
+        <v>179</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="B304" t="s">
-        <v>328</v>
-      </c>
-      <c r="C304" t="s">
-        <v>182</v>
+        <v>316</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="B305" t="s">
-        <v>487</v>
+        <v>316</v>
       </c>
       <c r="C305" t="s">
-        <v>500</v>
+        <v>211</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>475</v>
+        <v>210</v>
       </c>
       <c r="B306" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>476</v>
+        <v>229</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>183</v>
+        <v>460</v>
       </c>
       <c r="B307" t="s">
-        <v>312</v>
+        <v>451</v>
       </c>
       <c r="C307" t="s">
-        <v>184</v>
+        <v>461</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B308" t="s">
-        <v>501</v>
+        <v>313</v>
       </c>
       <c r="C308" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B309" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="C309" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B310" t="s">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="C310" t="s">
-        <v>186</v>
+        <v>488</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B311" t="s">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="C311" t="s">
-        <v>189</v>
+        <v>511</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B312" t="s">
-        <v>535</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>457</v>
+        <v>525</v>
+      </c>
+      <c r="C312" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>223</v>
+        <v>512</v>
       </c>
       <c r="B313" t="s">
-        <v>316</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>227</v>
+        <v>500</v>
+      </c>
+      <c r="C313" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>478</v>
+        <v>181</v>
       </c>
       <c r="B314" t="s">
-        <v>467</v>
+        <v>326</v>
       </c>
       <c r="C314" t="s">
-        <v>479</v>
+        <v>182</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="B315" t="s">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="C315" t="s">
-        <v>225</v>
+        <v>496</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="B316" t="s">
-        <v>529</v>
-      </c>
-      <c r="C316" t="s">
-        <v>530</v>
+        <v>463</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B317" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C317" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B318" t="s">
-        <v>314</v>
-      </c>
-      <c r="C318" t="s">
-        <v>122</v>
+        <v>563</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B319" t="s">
-        <v>407</v>
-      </c>
-      <c r="C319" t="s">
-        <v>193</v>
+        <v>563</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B320" t="s">
-        <v>308</v>
+        <v>497</v>
       </c>
       <c r="C320" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B321" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C321" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="B322" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="C322" t="s">
-        <v>371</v>
+        <v>186</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="B323" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C323" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="B324" t="s">
-        <v>339</v>
-      </c>
-      <c r="C324" t="s">
-        <v>295</v>
+        <v>531</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B325" t="s">
-        <v>306</v>
-      </c>
-      <c r="C325" t="s">
-        <v>198</v>
+        <v>316</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>197</v>
+        <v>474</v>
       </c>
       <c r="B326" t="s">
-        <v>309</v>
+        <v>463</v>
       </c>
       <c r="C326" t="s">
-        <v>199</v>
+        <v>475</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>197</v>
+        <v>474</v>
       </c>
       <c r="B327" t="s">
-        <v>340</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>231</v>
+        <v>308</v>
+      </c>
+      <c r="C327" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B328" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C328" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>200</v>
+        <v>524</v>
       </c>
       <c r="B329" t="s">
-        <v>343</v>
+        <v>525</v>
       </c>
       <c r="C329" t="s">
-        <v>82</v>
+        <v>526</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B330" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C330" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B331" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C331" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>192</v>
+      </c>
+      <c r="B332" t="s">
+        <v>405</v>
+      </c>
+      <c r="C332" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>194</v>
+      </c>
+      <c r="B333" t="s">
+        <v>308</v>
+      </c>
+      <c r="C333" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>194</v>
+      </c>
+      <c r="B334" t="s">
+        <v>341</v>
+      </c>
+      <c r="C334" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>368</v>
+      </c>
+      <c r="B335" t="s">
+        <v>364</v>
+      </c>
+      <c r="C335" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>276</v>
+      </c>
+      <c r="B336" t="s">
+        <v>340</v>
+      </c>
+      <c r="C336" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>276</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+      <c r="C337" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>197</v>
+      </c>
+      <c r="B338" t="s">
+        <v>306</v>
+      </c>
+      <c r="C338" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>197</v>
+      </c>
+      <c r="B339" t="s">
+        <v>309</v>
+      </c>
+      <c r="C339" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>197</v>
+      </c>
+      <c r="B340" t="s">
+        <v>338</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>200</v>
+      </c>
+      <c r="B341" t="s">
+        <v>338</v>
+      </c>
+      <c r="C341" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>200</v>
+      </c>
+      <c r="B342" t="s">
+        <v>341</v>
+      </c>
+      <c r="C342" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>201</v>
       </c>
-      <c r="B332" t="s">
-        <v>350</v>
-      </c>
-      <c r="C332" t="s">
+      <c r="B343" t="s">
+        <v>306</v>
+      </c>
+      <c r="C343" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>201</v>
+      </c>
+      <c r="B344" t="s">
+        <v>341</v>
+      </c>
+      <c r="C344" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>201</v>
+      </c>
+      <c r="B345" t="s">
+        <v>348</v>
+      </c>
+      <c r="C345" t="s">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C332">
-    <sortCondition ref="A1:A332"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C345">
+    <sortCondition ref="A1:A345"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/phrx_words.xlsx
+++ b/phrx_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Pictures\Phyrexian\phyrexian_search_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3391A950-8D37-44B3-84CF-F92D8A2E5101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A441E-A7F4-4C7A-8527-90FEF9F50E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="578">
   <si>
     <t>Ability</t>
   </si>
@@ -1758,6 +1758,15 @@
   </si>
   <si>
     <t>ZvOTdLTd</t>
+  </si>
+  <si>
+    <t>LMvODdNx</t>
+  </si>
+  <si>
+    <t>TdQ-ZNvZwHZyMxZy_dE-ZGZx</t>
+  </si>
+  <si>
+    <t>TdLZy_d-ZHZvLDdNwGNy</t>
   </si>
 </sst>
 </file>
@@ -2599,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C345"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I348" sqref="I348"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C327" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4380,13 +4389,13 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B162" t="s">
-        <v>546</v>
+        <v>307</v>
       </c>
       <c r="C162" t="s">
-        <v>85</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -4394,43 +4403,43 @@
         <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="C163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
         <v>320</v>
       </c>
       <c r="C164" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C165" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="B166" t="s">
-        <v>426</v>
+        <v>310</v>
       </c>
       <c r="C166" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -4438,65 +4447,65 @@
         <v>258</v>
       </c>
       <c r="B167" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="C167" t="s">
-        <v>488</v>
+        <v>259</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="B168" t="s">
-        <v>383</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>388</v>
+        <v>483</v>
+      </c>
+      <c r="C168" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="B169" t="s">
-        <v>308</v>
-      </c>
-      <c r="C169" t="s">
-        <v>92</v>
+        <v>383</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B170" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C170" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>370</v>
+        <v>93</v>
       </c>
       <c r="B171" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="C171" t="s">
-        <v>371</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="B172" t="s">
-        <v>415</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
+      </c>
+      <c r="C172" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -4506,52 +4515,52 @@
       <c r="B173" t="s">
         <v>415</v>
       </c>
-      <c r="C173" t="s">
-        <v>418</v>
+      <c r="C173" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="B174" t="s">
-        <v>327</v>
+        <v>415</v>
       </c>
       <c r="C174" t="s">
-        <v>270</v>
+        <v>418</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>492</v>
+        <v>267</v>
       </c>
       <c r="B175" t="s">
-        <v>483</v>
+        <v>327</v>
       </c>
       <c r="C175" t="s">
-        <v>493</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>285</v>
+        <v>492</v>
       </c>
       <c r="B176" t="s">
-        <v>340</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>282</v>
+        <v>483</v>
+      </c>
+      <c r="C176" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="B177" t="s">
-        <v>333</v>
-      </c>
-      <c r="C177" t="s">
-        <v>99</v>
+        <v>340</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -4559,10 +4568,10 @@
         <v>95</v>
       </c>
       <c r="B178" t="s">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="C178" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -4570,21 +4579,21 @@
         <v>95</v>
       </c>
       <c r="B179" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="C179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B180" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="C180" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -4592,10 +4601,10 @@
         <v>100</v>
       </c>
       <c r="B181" t="s">
-        <v>313</v>
+        <v>560</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -4603,10 +4612,10 @@
         <v>100</v>
       </c>
       <c r="B182" t="s">
-        <v>467</v>
+        <v>313</v>
       </c>
       <c r="C182" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -4614,32 +4623,32 @@
         <v>100</v>
       </c>
       <c r="B183" t="s">
-        <v>500</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>516</v>
+        <v>467</v>
+      </c>
+      <c r="C183" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>538</v>
+        <v>100</v>
       </c>
       <c r="B184" t="s">
-        <v>525</v>
-      </c>
-      <c r="C184" t="s">
-        <v>539</v>
+        <v>500</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>102</v>
+        <v>538</v>
       </c>
       <c r="B185" t="s">
-        <v>320</v>
+        <v>525</v>
       </c>
       <c r="C185" t="s">
-        <v>105</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4647,10 +4656,10 @@
         <v>102</v>
       </c>
       <c r="B186" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C186" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -4658,10 +4667,10 @@
         <v>102</v>
       </c>
       <c r="B187" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C187" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -4669,54 +4678,54 @@
         <v>102</v>
       </c>
       <c r="B188" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C188" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="B189" t="s">
-        <v>430</v>
+        <v>329</v>
       </c>
       <c r="C189" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B190" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C190" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B191" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="C191" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
       <c r="B192" t="s">
-        <v>483</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>490</v>
+        <v>399</v>
+      </c>
+      <c r="C192" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -4724,21 +4733,21 @@
         <v>489</v>
       </c>
       <c r="B193" t="s">
-        <v>525</v>
-      </c>
-      <c r="C193" t="s">
-        <v>539</v>
+        <v>483</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="B194" t="s">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="C194" t="s">
-        <v>107</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -4746,10 +4755,10 @@
         <v>106</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C195" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4757,32 +4766,32 @@
         <v>106</v>
       </c>
       <c r="B196" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C196" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B197" t="s">
-        <v>341</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>238</v>
+        <v>340</v>
+      </c>
+      <c r="C197" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B198" t="s">
-        <v>308</v>
-      </c>
-      <c r="C198" t="s">
-        <v>112</v>
+        <v>341</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -4790,10 +4799,10 @@
         <v>110</v>
       </c>
       <c r="B199" t="s">
-        <v>481</v>
+        <v>308</v>
       </c>
       <c r="C199" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4801,10 +4810,10 @@
         <v>110</v>
       </c>
       <c r="B200" t="s">
-        <v>308</v>
+        <v>481</v>
       </c>
       <c r="C200" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -4815,7 +4824,7 @@
         <v>308</v>
       </c>
       <c r="C201" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -4823,21 +4832,21 @@
         <v>110</v>
       </c>
       <c r="B202" t="s">
-        <v>500</v>
+        <v>308</v>
       </c>
       <c r="C202" t="s">
-        <v>505</v>
+        <v>113</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>456</v>
+        <v>110</v>
       </c>
       <c r="B203" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="C203" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -4853,13 +4862,13 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>115</v>
+        <v>456</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>451</v>
       </c>
       <c r="C205" t="s">
-        <v>116</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -4867,32 +4876,32 @@
         <v>115</v>
       </c>
       <c r="B206" t="s">
-        <v>451</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>452</v>
+        <v>338</v>
+      </c>
+      <c r="C206" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>427</v>
+        <v>115</v>
       </c>
       <c r="B207" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>273</v>
+        <v>427</v>
       </c>
       <c r="B208" t="s">
-        <v>559</v>
-      </c>
-      <c r="C208" t="s">
-        <v>274</v>
+        <v>423</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -4900,32 +4909,32 @@
         <v>273</v>
       </c>
       <c r="B209" t="s">
-        <v>317</v>
+        <v>559</v>
       </c>
       <c r="C209" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B210" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C210" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="B211" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C211" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4933,10 +4942,10 @@
         <v>117</v>
       </c>
       <c r="B212" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="C212" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -4947,18 +4956,18 @@
         <v>338</v>
       </c>
       <c r="C213" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B214" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C214" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -4966,10 +4975,10 @@
         <v>121</v>
       </c>
       <c r="B215" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C215" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -4977,43 +4986,43 @@
         <v>121</v>
       </c>
       <c r="B216" t="s">
-        <v>451</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>453</v>
+        <v>320</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>414</v>
+        <v>121</v>
       </c>
       <c r="B217" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>123</v>
+        <v>414</v>
       </c>
       <c r="B218" t="s">
-        <v>313</v>
-      </c>
-      <c r="C218" t="s">
-        <v>124</v>
+        <v>415</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>515</v>
+        <v>123</v>
       </c>
       <c r="B219" t="s">
-        <v>500</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>516</v>
+        <v>313</v>
+      </c>
+      <c r="C219" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -5021,109 +5030,109 @@
         <v>515</v>
       </c>
       <c r="B220" t="s">
-        <v>525</v>
-      </c>
-      <c r="C220" t="s">
-        <v>539</v>
+        <v>500</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>125</v>
+        <v>515</v>
       </c>
       <c r="B221" t="s">
-        <v>341</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>237</v>
+        <v>525</v>
+      </c>
+      <c r="C221" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="B222" t="s">
-        <v>463</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>480</v>
+        <v>332</v>
+      </c>
+      <c r="C222" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B223" t="s">
-        <v>324</v>
-      </c>
-      <c r="C223" t="s">
-        <v>127</v>
+        <v>341</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>126</v>
+        <v>479</v>
       </c>
       <c r="B224" t="s">
-        <v>332</v>
-      </c>
-      <c r="C224" t="s">
-        <v>262</v>
+        <v>463</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B225" t="s">
-        <v>473</v>
+        <v>324</v>
       </c>
       <c r="C225" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B226" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="C226" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="B227" t="s">
-        <v>399</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>412</v>
+        <v>473</v>
+      </c>
+      <c r="C227" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>431</v>
+        <v>128</v>
       </c>
       <c r="B228" t="s">
-        <v>423</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>432</v>
+        <v>306</v>
+      </c>
+      <c r="C228" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B229" t="s">
-        <v>423</v>
-      </c>
-      <c r="C229" t="s">
-        <v>433</v>
+        <v>399</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -5131,32 +5140,32 @@
         <v>431</v>
       </c>
       <c r="B230" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>131</v>
+        <v>431</v>
       </c>
       <c r="B231" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="C231" t="s">
-        <v>134</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>131</v>
+        <v>431</v>
       </c>
       <c r="B232" t="s">
-        <v>343</v>
-      </c>
-      <c r="C232" t="s">
-        <v>133</v>
+        <v>440</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -5164,10 +5173,10 @@
         <v>131</v>
       </c>
       <c r="B233" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="C233" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -5175,43 +5184,43 @@
         <v>131</v>
       </c>
       <c r="B234" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
       <c r="C234" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>376</v>
+        <v>131</v>
       </c>
       <c r="B235" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="C235" t="s">
-        <v>377</v>
+        <v>132</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="C236" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>135</v>
+        <v>376</v>
       </c>
       <c r="B237" t="s">
-        <v>565</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>236</v>
+        <v>364</v>
+      </c>
+      <c r="C237" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -5219,10 +5228,10 @@
         <v>135</v>
       </c>
       <c r="B238" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C238" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -5230,10 +5239,10 @@
         <v>135</v>
       </c>
       <c r="B239" t="s">
-        <v>563</v>
-      </c>
-      <c r="C239" t="s">
-        <v>566</v>
+        <v>565</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -5241,32 +5250,32 @@
         <v>135</v>
       </c>
       <c r="B240" t="s">
-        <v>563</v>
+        <v>313</v>
       </c>
       <c r="C240" t="s">
-        <v>567</v>
+        <v>137</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B241" t="s">
-        <v>351</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>235</v>
+        <v>563</v>
+      </c>
+      <c r="C241" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B242" t="s">
-        <v>341</v>
+        <v>563</v>
       </c>
       <c r="C242" t="s">
-        <v>139</v>
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -5274,10 +5283,10 @@
         <v>138</v>
       </c>
       <c r="B243" t="s">
-        <v>338</v>
-      </c>
-      <c r="C243" t="s">
-        <v>118</v>
+        <v>351</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -5285,10 +5294,10 @@
         <v>138</v>
       </c>
       <c r="B244" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="C244" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -5296,10 +5305,10 @@
         <v>138</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C245" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -5307,43 +5316,43 @@
         <v>138</v>
       </c>
       <c r="B246" t="s">
-        <v>348</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
+      </c>
+      <c r="C246" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="B247" t="s">
-        <v>317</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>266</v>
+        <v>337</v>
+      </c>
+      <c r="C247" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B248" t="s">
-        <v>467</v>
-      </c>
-      <c r="C248" t="s">
-        <v>101</v>
+        <v>348</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B249" t="s">
-        <v>442</v>
-      </c>
-      <c r="C249" t="s">
-        <v>252</v>
+        <v>317</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -5351,428 +5360,428 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>500</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>516</v>
+        <v>467</v>
+      </c>
+      <c r="C250" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>320</v>
+        <v>442</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>330</v>
-      </c>
-      <c r="C252" t="s">
-        <v>18</v>
+        <v>500</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B253" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C253" t="s">
-        <v>454</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B254" t="s">
-        <v>530</v>
+        <v>330</v>
       </c>
       <c r="C254" t="s">
-        <v>455</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>520</v>
+        <v>141</v>
       </c>
       <c r="B255" t="s">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="C255" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B256" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="C256" t="s">
-        <v>143</v>
+        <v>455</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>144</v>
+        <v>520</v>
       </c>
       <c r="B257" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="C257" t="s">
-        <v>145</v>
+        <v>521</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="B258" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C258" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B259" t="s">
-        <v>312</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>234</v>
+        <v>562</v>
+      </c>
+      <c r="C259" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>469</v>
+        <v>144</v>
       </c>
       <c r="B260" t="s">
-        <v>463</v>
+        <v>307</v>
       </c>
       <c r="C260" t="s">
-        <v>470</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>253</v>
+        <v>550</v>
       </c>
       <c r="B261" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C261" t="s">
-        <v>254</v>
+        <v>551</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B262" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>147</v>
+        <v>469</v>
       </c>
       <c r="B263" t="s">
-        <v>325</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>233</v>
+        <v>463</v>
+      </c>
+      <c r="C263" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B264" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C264" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B265" t="s">
-        <v>315</v>
-      </c>
-      <c r="C265" t="s">
-        <v>150</v>
+        <v>325</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B266" t="s">
-        <v>310</v>
-      </c>
-      <c r="C266" t="s">
-        <v>152</v>
+        <v>325</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>410</v>
+        <v>147</v>
       </c>
       <c r="B267" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="C267" t="s">
-        <v>572</v>
+        <v>148</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B268" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C268" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B269" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C269" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B270" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C270" t="s">
-        <v>390</v>
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>502</v>
+        <v>153</v>
       </c>
       <c r="B271" t="s">
-        <v>500</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>503</v>
+        <v>341</v>
+      </c>
+      <c r="C271" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B272" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C272" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="B273" t="s">
-        <v>463</v>
+        <v>383</v>
       </c>
       <c r="C273" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>157</v>
+        <v>502</v>
       </c>
       <c r="B274" t="s">
-        <v>313</v>
-      </c>
-      <c r="C274" t="s">
-        <v>158</v>
+        <v>500</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>391</v>
+        <v>155</v>
       </c>
       <c r="B275" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="C275" t="s">
-        <v>392</v>
+        <v>156</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B276" t="s">
-        <v>343</v>
+        <v>463</v>
       </c>
       <c r="C276" t="s">
-        <v>160</v>
+        <v>476</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B277" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C277" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>161</v>
+        <v>391</v>
       </c>
       <c r="B278" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="C278" t="s">
-        <v>164</v>
+        <v>392</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B279" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C279" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>424</v>
+        <v>161</v>
       </c>
       <c r="B280" t="s">
-        <v>423</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>425</v>
+        <v>352</v>
+      </c>
+      <c r="C280" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B281" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C281" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="B282" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C282" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>167</v>
+        <v>424</v>
       </c>
       <c r="B283" t="s">
-        <v>313</v>
-      </c>
-      <c r="C283" t="s">
-        <v>168</v>
+        <v>423</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B284" t="s">
-        <v>423</v>
+        <v>331</v>
       </c>
       <c r="C284" t="s">
-        <v>436</v>
+        <v>166</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>508</v>
+        <v>301</v>
       </c>
       <c r="B285" t="s">
-        <v>500</v>
+        <v>353</v>
       </c>
       <c r="C285" t="s">
-        <v>509</v>
+        <v>302</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B286" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C286" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B287" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="C287" t="s">
-        <v>171</v>
+        <v>436</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>169</v>
+        <v>508</v>
       </c>
       <c r="B288" t="s">
-        <v>314</v>
+        <v>500</v>
       </c>
       <c r="C288" t="s">
-        <v>122</v>
+        <v>509</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -5780,10 +5789,10 @@
         <v>169</v>
       </c>
       <c r="B289" t="s">
-        <v>307</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>230</v>
+        <v>321</v>
+      </c>
+      <c r="C289" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -5791,230 +5800,230 @@
         <v>169</v>
       </c>
       <c r="B290" t="s">
-        <v>525</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>548</v>
+        <v>362</v>
+      </c>
+      <c r="C290" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>465</v>
+        <v>169</v>
       </c>
       <c r="B291" t="s">
-        <v>463</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>466</v>
+        <v>314</v>
+      </c>
+      <c r="C291" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>557</v>
+        <v>169</v>
       </c>
       <c r="B292" t="s">
-        <v>310</v>
-      </c>
-      <c r="C292" t="s">
-        <v>558</v>
+        <v>307</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="B293" t="s">
-        <v>337</v>
-      </c>
-      <c r="C293" t="s">
-        <v>297</v>
+        <v>525</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>290</v>
+        <v>465</v>
       </c>
       <c r="B294" t="s">
-        <v>354</v>
-      </c>
-      <c r="C294" t="s">
-        <v>291</v>
+        <v>463</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>393</v>
+        <v>557</v>
       </c>
       <c r="B295" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="C295" t="s">
-        <v>394</v>
+        <v>558</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C296" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="B297" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="C297" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="B298" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="C298" t="s">
-        <v>176</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="B299" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C299" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C300" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B301" t="s">
-        <v>528</v>
+        <v>313</v>
       </c>
       <c r="C301" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B302" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C302" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="B303" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C303" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B304" t="s">
-        <v>316</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>229</v>
+        <v>528</v>
+      </c>
+      <c r="C304" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B305" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C305" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="B306" t="s">
-        <v>451</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>229</v>
+        <v>329</v>
+      </c>
+      <c r="C306" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="B307" t="s">
-        <v>451</v>
-      </c>
-      <c r="C307" t="s">
-        <v>461</v>
+        <v>316</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B308" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B309" t="s">
-        <v>313</v>
-      </c>
-      <c r="C309" t="s">
-        <v>32</v>
+        <v>451</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="B310" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="C310" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -6022,10 +6031,10 @@
         <v>180</v>
       </c>
       <c r="B311" t="s">
-        <v>500</v>
+        <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>511</v>
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -6033,120 +6042,120 @@
         <v>180</v>
       </c>
       <c r="B312" t="s">
-        <v>525</v>
+        <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>545</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>512</v>
+        <v>180</v>
       </c>
       <c r="B313" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="C313" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B314" t="s">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="C314" t="s">
-        <v>182</v>
+        <v>511</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B315" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="C315" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="B316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>472</v>
+        <v>500</v>
+      </c>
+      <c r="C316" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B317" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C317" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B318" t="s">
-        <v>563</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>569</v>
+        <v>483</v>
+      </c>
+      <c r="C318" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>183</v>
+        <v>471</v>
       </c>
       <c r="B319" t="s">
-        <v>563</v>
+        <v>463</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>570</v>
+        <v>472</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B320" t="s">
-        <v>497</v>
+        <v>312</v>
       </c>
       <c r="C320" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B321" t="s">
-        <v>329</v>
-      </c>
-      <c r="C321" t="s">
-        <v>188</v>
+        <v>563</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B322" t="s">
-        <v>312</v>
-      </c>
-      <c r="C322" t="s">
-        <v>186</v>
+        <v>563</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -6154,10 +6163,10 @@
         <v>185</v>
       </c>
       <c r="B323" t="s">
-        <v>320</v>
+        <v>497</v>
       </c>
       <c r="C323" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -6165,246 +6174,279 @@
         <v>185</v>
       </c>
       <c r="B324" t="s">
-        <v>531</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>453</v>
+        <v>329</v>
+      </c>
+      <c r="C324" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="B325" t="s">
-        <v>316</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>227</v>
+        <v>312</v>
+      </c>
+      <c r="C325" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>474</v>
+        <v>185</v>
       </c>
       <c r="B326" t="s">
-        <v>463</v>
+        <v>320</v>
       </c>
       <c r="C326" t="s">
-        <v>475</v>
+        <v>189</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>474</v>
+        <v>185</v>
       </c>
       <c r="B327" t="s">
-        <v>308</v>
-      </c>
-      <c r="C327" t="s">
-        <v>113</v>
+        <v>531</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B328" t="s">
-        <v>312</v>
-      </c>
-      <c r="C328" t="s">
-        <v>225</v>
+        <v>316</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="B329" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="C329" t="s">
-        <v>526</v>
+        <v>475</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>190</v>
+        <v>474</v>
       </c>
       <c r="B330" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C330" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="B331" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C331" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>192</v>
+        <v>524</v>
       </c>
       <c r="B332" t="s">
-        <v>405</v>
+        <v>525</v>
       </c>
       <c r="C332" t="s">
-        <v>193</v>
+        <v>526</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B333" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C333" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B334" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C334" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>368</v>
+        <v>192</v>
       </c>
       <c r="B335" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="C335" t="s">
-        <v>369</v>
+        <v>193</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="B336" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="C336" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="B337" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C337" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>197</v>
+        <v>368</v>
       </c>
       <c r="B338" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="C338" t="s">
-        <v>198</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="B339" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="B340" t="s">
-        <v>338</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>231</v>
+        <v>337</v>
+      </c>
+      <c r="C340" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B341" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C341" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C342" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B343" t="s">
-        <v>306</v>
-      </c>
-      <c r="C343" t="s">
-        <v>130</v>
+        <v>338</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B344" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C344" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
+        <v>200</v>
+      </c>
+      <c r="B345" t="s">
+        <v>341</v>
+      </c>
+      <c r="C345" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>201</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
+        <v>306</v>
+      </c>
+      <c r="C346" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>201</v>
+      </c>
+      <c r="B347" t="s">
+        <v>341</v>
+      </c>
+      <c r="C347" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>201</v>
+      </c>
+      <c r="B348" t="s">
         <v>348</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C348" t="s">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C345">
-    <sortCondition ref="A1:A345"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C348">
+    <sortCondition ref="A1:A348"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/phrx_words.xlsx
+++ b/phrx_words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Pictures\Phyrexian\phyrexian_search_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A441E-A7F4-4C7A-8527-90FEF9F50E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3859ADCC-E851-43ED-A56E-B4D5C93A2A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="586">
   <si>
     <t>Ability</t>
   </si>
@@ -1031,9 +1031,6 @@
     <t>Yawg_Test, NEO_Jin</t>
   </si>
   <si>
-    <t>Promo_PsyCrawl</t>
-  </si>
-  <si>
     <t>Promo_Swamp</t>
   </si>
   <si>
@@ -1163,9 +1160,6 @@
     <t>ZvTd-ZOZxMvNwLLTd</t>
   </si>
   <si>
-    <t>Perfection</t>
-  </si>
-  <si>
     <t>V+ZvGDdNwVdTdL+ZwT</t>
   </si>
   <si>
@@ -1223,9 +1217,6 @@
     <t>Dismember</t>
   </si>
   <si>
-    <t>Promo_Dismember</t>
-  </si>
-  <si>
     <t>AxONwZwENvL-ZZyMvETDd</t>
   </si>
   <si>
@@ -1292,9 +1283,6 @@
     <t>Zd_dLZMdArNvG_d_d</t>
   </si>
   <si>
-    <t>Promo_PsyCrawl, NPH_InkNexus</t>
-  </si>
-  <si>
     <t>Flying</t>
   </si>
   <si>
@@ -1313,9 +1301,6 @@
     <t>-ZF-ZG_d</t>
   </si>
   <si>
-    <t>Promo_PsyCrawl, C19_Krrik</t>
-  </si>
-  <si>
     <t>Minion</t>
   </si>
   <si>
@@ -1526,12 +1511,6 @@
     <t>NeVFZwNvJ-ZyZvLTd-ZZeNwO</t>
   </si>
   <si>
-    <t>Yawg_Test, SNC_Ura, DMU_Ajani, Promo_Dismember, NPH_InkNexus, ONE_Nissa</t>
-  </si>
-  <si>
-    <t>DMU_Ajani, Promo_Dismember, ONE_Jace, ONE_Nissa</t>
-  </si>
-  <si>
     <t>Bind</t>
   </si>
   <si>
@@ -1616,12 +1595,6 @@
     <t>TeGZyNy</t>
   </si>
   <si>
-    <t>NPH_Ura, NEO_Tami, DMU_Ajani, Promo_Dismember, NPH_Elf, NPH_Agent, NPH_InkNexus, ONE_Jace, ONE_Vraska, ONE_Nahiri</t>
-  </si>
-  <si>
-    <t>NPH_Sheo, NEO_Tami, DMU_Ajani, Promo_Dismember, ONE_Jace, ONE_Vraska, ONE_Lukka, ONE_Nahiri</t>
-  </si>
-  <si>
     <t>ZqO+ZvE-ZNw</t>
   </si>
   <si>
@@ -1640,9 +1613,6 @@
     <t>NqFZeNqFAxZxENw</t>
   </si>
   <si>
-    <t>NEO_Tami, DMU_Sheo, Promo_PsyCrawl, ONE_PhrxArena, ONE_Jace, ONE_Vraska, ONE_Nahiri</t>
-  </si>
-  <si>
     <t>Discard</t>
   </si>
   <si>
@@ -1700,12 +1670,6 @@
     <t>THAxHEZy</t>
   </si>
   <si>
-    <t>Guide</t>
-  </si>
-  <si>
-    <t>NyF-ZOZxMvNwETd</t>
-  </si>
-  <si>
     <t>Stun</t>
   </si>
   <si>
@@ -1767,6 +1731,66 @@
   </si>
   <si>
     <t>TdLZy_d-ZHZvLDdNwGNy</t>
+  </si>
+  <si>
+    <t>MBS_PsyCrawl</t>
+  </si>
+  <si>
+    <t>NEO_Tami, DMU_Sheo, MBS_PsyCrawl, ONE_PhrxArena, ONE_Jace, ONE_Vraska, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>MBS_PsyCrawl, NPH_InkNexus</t>
+  </si>
+  <si>
+    <t>MBS_PsyCrawl, C19_Krrik</t>
+  </si>
+  <si>
+    <t>NPH_Ura, NEO_Tami, DMU_Ajani, NPH_Dismember, NPH_Elf, NPH_Agent, NPH_InkNexus, ONE_Jace, ONE_Vraska, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>NPH_Dismember</t>
+  </si>
+  <si>
+    <t>DMU_Ajani, NPH_Dismember, ONE_Jace, ONE_Nissa</t>
+  </si>
+  <si>
+    <t>NPH_Sheo, NEO_Tami, DMU_Ajani, NPH_Dismember, ONE_Jace, ONE_Vraska, ONE_Lukka, ONE_Nahiri</t>
+  </si>
+  <si>
+    <t>Yawg_Test, SNC_Ura, DMU_Ajani, NPH_Dismember, NPH_InkNexus, ONE_Nissa</t>
+  </si>
+  <si>
+    <t>Obliterate</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>ZwMx+ZwF-ZvNy</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>NxHTZw</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>TdJ+NxT</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>CrK-NZx</t>
+  </si>
+  <si>
+    <t>CapsLock</t>
+  </si>
+  <si>
+    <t>-ZvLAr-Zx</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2608,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:C352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C327" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2632,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2643,10 +2667,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2654,32 +2678,32 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C6" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2687,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -2695,68 +2719,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>580</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>576</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>441</v>
+        <v>478</v>
+      </c>
+      <c r="C10" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" t="s">
-        <v>204</v>
+        <v>435</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>358</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2764,10 +2788,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2775,54 +2799,54 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>566</v>
       </c>
       <c r="C16" t="s">
-        <v>484</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B18" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="C18" t="s">
-        <v>534</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>438</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>518</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2830,21 +2854,21 @@
         <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2852,10 +2876,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2863,43 +2887,43 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>564</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>510</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>374</v>
+        <v>503</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
+        <v>493</v>
       </c>
       <c r="C25" t="s">
-        <v>375</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>249</v>
+        <v>363</v>
+      </c>
+      <c r="C26" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2907,120 +2931,120 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>549</v>
+        <v>334</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C28" t="s">
-        <v>288</v>
+        <v>539</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>464</v>
+        <v>335</v>
+      </c>
+      <c r="C29" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="B30" t="s">
-        <v>500</v>
-      </c>
-      <c r="C30" t="s">
-        <v>501</v>
+        <v>458</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="B31" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="C31" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="C32" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>228</v>
+        <v>381</v>
+      </c>
+      <c r="C33" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>573</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" t="s">
-        <v>574</v>
+        <v>316</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>561</v>
       </c>
       <c r="B35" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C35" t="s">
-        <v>328</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>245</v>
+        <v>337</v>
+      </c>
+      <c r="C36" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="B37" t="s">
-        <v>319</v>
+        <v>576</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>248</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3028,10 +3052,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>541</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
+        <v>309</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -3039,10 +3063,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>320</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
+        <v>319</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -3050,10 +3074,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -3061,10 +3085,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>535</v>
+        <v>320</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -3072,10 +3096,10 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>454</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -3083,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>567</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -3094,32 +3118,32 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>463</v>
+        <v>329</v>
       </c>
       <c r="C44" t="s">
-        <v>475</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>312</v>
+        <v>566</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>458</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -3127,131 +3151,131 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>437</v>
+        <v>312</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>477</v>
+        <v>226</v>
       </c>
       <c r="B50" t="s">
-        <v>463</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>478</v>
+        <v>306</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>477</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s">
-        <v>525</v>
-      </c>
-      <c r="C52" t="s">
-        <v>533</v>
+        <v>458</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>552</v>
+        <v>472</v>
       </c>
       <c r="B53" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C53" t="s">
-        <v>553</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="B54" t="s">
-        <v>338</v>
+        <v>518</v>
       </c>
       <c r="C54" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>542</v>
       </c>
       <c r="B55" t="s">
-        <v>468</v>
+        <v>310</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>542</v>
       </c>
       <c r="B56" t="s">
-        <v>338</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>247</v>
+        <v>337</v>
+      </c>
+      <c r="C56" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>311</v>
-      </c>
-      <c r="C58" t="s">
-        <v>28</v>
+        <v>337</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -3259,10 +3283,10 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>519</v>
+        <v>314</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -3270,32 +3294,32 @@
         <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="C60" t="s">
-        <v>445</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -3303,10 +3327,10 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>543</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -3314,32 +3338,32 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>563</v>
+        <v>312</v>
       </c>
       <c r="C64" t="s">
-        <v>571</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>340</v>
+        <v>533</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>551</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>559</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -3347,32 +3371,32 @@
         <v>283</v>
       </c>
       <c r="B67" t="s">
-        <v>525</v>
+        <v>339</v>
       </c>
       <c r="C67" t="s">
-        <v>539</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -3380,43 +3404,43 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="C70" t="s">
-        <v>438</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C71" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>307</v>
+        <v>419</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>433</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>566</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -3424,32 +3448,32 @@
         <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>544</v>
+        <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>527</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>244</v>
+        <v>313</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>245</v>
+        <v>534</v>
+      </c>
+      <c r="C76" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -3457,10 +3481,10 @@
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
-      </c>
-      <c r="C77" t="s">
-        <v>209</v>
+        <v>570</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3468,10 +3492,10 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>561</v>
-      </c>
-      <c r="C78" t="s">
-        <v>41</v>
+        <v>309</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3479,10 +3503,10 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>341</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>243</v>
+        <v>316</v>
+      </c>
+      <c r="C79" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -3490,10 +3514,10 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>549</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3501,10 +3525,10 @@
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>494</v>
+        <v>340</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3512,10 +3536,10 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>419</v>
+        <v>316</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3523,10 +3547,10 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C83" t="s">
-        <v>404</v>
+        <v>489</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -3534,10 +3558,10 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>440</v>
+        <v>568</v>
       </c>
       <c r="C84" t="s">
-        <v>449</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -3545,10 +3569,10 @@
         <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="C85" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -3556,10 +3580,10 @@
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>500</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>507</v>
+        <v>435</v>
+      </c>
+      <c r="C86" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -3567,10 +3591,10 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="C87" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -3578,10 +3602,10 @@
         <v>40</v>
       </c>
       <c r="B88" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -3589,10 +3613,10 @@
         <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C89" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -3600,109 +3624,109 @@
         <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>525</v>
-      </c>
-      <c r="C90" t="s">
-        <v>529</v>
+        <v>493</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>517</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C91" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
       <c r="B93" t="s">
-        <v>322</v>
+        <v>493</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>536</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>525</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s">
-        <v>537</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="C96" t="s">
-        <v>397</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>526</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>518</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>393</v>
       </c>
       <c r="B98" t="s">
-        <v>307</v>
+        <v>571</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C99" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -3710,241 +3734,241 @@
         <v>46</v>
       </c>
       <c r="B100" t="s">
-        <v>535</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C101" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>567</v>
       </c>
       <c r="C102" t="s">
-        <v>448</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B103" t="s">
-        <v>440</v>
+        <v>566</v>
       </c>
       <c r="C103" t="s">
-        <v>449</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B104" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B105" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="C105" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>442</v>
       </c>
       <c r="B106" t="s">
-        <v>342</v>
+        <v>478</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>442</v>
       </c>
       <c r="B107" t="s">
-        <v>339</v>
+        <v>518</v>
       </c>
       <c r="C107" t="s">
-        <v>51</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>366</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C108" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="B110" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="C110" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C111" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="B112" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C112" t="s">
-        <v>360</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>403</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>404</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="B114" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C114" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>398</v>
+        <v>578</v>
       </c>
       <c r="B115" t="s">
-        <v>399</v>
+        <v>576</v>
       </c>
       <c r="C115" t="s">
-        <v>400</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="B116" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="B117" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="B118" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="C118" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>542</v>
+        <v>342</v>
       </c>
       <c r="C119" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="C121" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -3952,10 +3976,10 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>329</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>242</v>
+        <v>532</v>
+      </c>
+      <c r="C122" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -3963,197 +3987,197 @@
         <v>56</v>
       </c>
       <c r="B123" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B124" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B126" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C127" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B128" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>378</v>
+        <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="C130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="B131" t="s">
-        <v>341</v>
-      </c>
-      <c r="C131" t="s">
-        <v>70</v>
+        <v>336</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>71</v>
+        <v>376</v>
       </c>
       <c r="B132" t="s">
-        <v>341</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>238</v>
+        <v>363</v>
+      </c>
+      <c r="C132" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="C133" t="s">
-        <v>299</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>420</v>
+        <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="C134" t="s">
-        <v>421</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>344</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>268</v>
+        <v>347</v>
+      </c>
+      <c r="C136" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>416</v>
       </c>
       <c r="B137" t="s">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="C137" t="s">
-        <v>495</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B138" t="s">
-        <v>547</v>
-      </c>
-      <c r="C138" t="s">
-        <v>74</v>
+        <v>338</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="B139" t="s">
-        <v>514</v>
-      </c>
-      <c r="C139" t="s">
-        <v>222</v>
+        <v>343</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="B140" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -4161,76 +4185,76 @@
         <v>73</v>
       </c>
       <c r="B141" t="s">
-        <v>399</v>
+        <v>537</v>
       </c>
       <c r="C141" t="s">
-        <v>408</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="B142" t="s">
-        <v>364</v>
+        <v>507</v>
       </c>
       <c r="C142" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="B143" t="s">
-        <v>364</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>381</v>
+        <v>572</v>
+      </c>
+      <c r="C143" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>307</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>240</v>
+        <v>396</v>
+      </c>
+      <c r="C144" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="B145" t="s">
-        <v>329</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>239</v>
+        <v>363</v>
+      </c>
+      <c r="C145" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="B146" t="s">
-        <v>309</v>
-      </c>
-      <c r="C146" t="s">
-        <v>77</v>
+        <v>363</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B147" t="s">
-        <v>313</v>
-      </c>
-      <c r="C147" t="s">
-        <v>78</v>
+        <v>307</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -4238,10 +4262,10 @@
         <v>76</v>
       </c>
       <c r="B148" t="s">
-        <v>451</v>
-      </c>
-      <c r="C148" t="s">
-        <v>458</v>
+        <v>329</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -4249,43 +4273,43 @@
         <v>76</v>
       </c>
       <c r="B149" t="s">
-        <v>525</v>
+        <v>309</v>
       </c>
       <c r="C149" t="s">
-        <v>540</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B150" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="C150" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B151" t="s">
-        <v>306</v>
+        <v>446</v>
       </c>
       <c r="C151" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>338</v>
+        <v>518</v>
       </c>
       <c r="C152" t="s">
-        <v>83</v>
+        <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -4293,10 +4317,10 @@
         <v>79</v>
       </c>
       <c r="B153" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C153" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -4304,10 +4328,10 @@
         <v>79</v>
       </c>
       <c r="B154" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="C154" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -4315,65 +4339,65 @@
         <v>79</v>
       </c>
       <c r="B155" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C155" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="B156" t="s">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="C156" t="s">
-        <v>488</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>500</v>
+        <v>342</v>
       </c>
       <c r="C157" t="s">
-        <v>511</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C158" t="s">
-        <v>556</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>482</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>478</v>
       </c>
       <c r="C159" t="s">
-        <v>217</v>
+        <v>483</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>482</v>
       </c>
       <c r="B160" t="s">
-        <v>332</v>
+        <v>493</v>
       </c>
       <c r="C160" t="s">
-        <v>260</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -4381,10 +4405,10 @@
         <v>216</v>
       </c>
       <c r="B161" t="s">
-        <v>399</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>412</v>
+        <v>316</v>
+      </c>
+      <c r="C161" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -4392,197 +4416,197 @@
         <v>216</v>
       </c>
       <c r="B162" t="s">
-        <v>307</v>
+        <v>566</v>
       </c>
       <c r="C162" t="s">
-        <v>577</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B163" t="s">
-        <v>546</v>
-      </c>
-      <c r="C163" t="s">
-        <v>85</v>
+        <v>396</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B164" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C164" t="s">
-        <v>86</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s">
-        <v>320</v>
+        <v>536</v>
       </c>
       <c r="C165" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C166" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="C167" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="B168" t="s">
-        <v>483</v>
+        <v>310</v>
       </c>
       <c r="C168" t="s">
-        <v>488</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
-        <v>383</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>388</v>
+        <v>569</v>
+      </c>
+      <c r="C169" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
-        <v>308</v>
+        <v>478</v>
       </c>
       <c r="C170" t="s">
-        <v>92</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>93</v>
+        <v>385</v>
       </c>
       <c r="B171" t="s">
-        <v>341</v>
-      </c>
-      <c r="C171" t="s">
-        <v>94</v>
+        <v>381</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>370</v>
+        <v>91</v>
       </c>
       <c r="B172" t="s">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="C172" t="s">
-        <v>371</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>413</v>
+        <v>93</v>
       </c>
       <c r="B173" t="s">
-        <v>415</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>416</v>
+        <v>340</v>
+      </c>
+      <c r="C173" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="B174" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C174" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="B175" t="s">
-        <v>327</v>
-      </c>
-      <c r="C175" t="s">
-        <v>270</v>
+        <v>412</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="B176" t="s">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="C176" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
-        <v>340</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
+      </c>
+      <c r="C177" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>95</v>
+        <v>487</v>
       </c>
       <c r="B178" t="s">
-        <v>333</v>
+        <v>478</v>
       </c>
       <c r="C178" t="s">
-        <v>99</v>
+        <v>488</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="B179" t="s">
-        <v>417</v>
-      </c>
-      <c r="C179" t="s">
-        <v>96</v>
+        <v>339</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -4590,32 +4614,32 @@
         <v>95</v>
       </c>
       <c r="B180" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C180" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B181" t="s">
-        <v>560</v>
+        <v>414</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B182" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -4623,10 +4647,10 @@
         <v>100</v>
       </c>
       <c r="B183" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="C183" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -4634,43 +4658,43 @@
         <v>100</v>
       </c>
       <c r="B184" t="s">
-        <v>500</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>516</v>
+        <v>313</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>538</v>
+        <v>100</v>
       </c>
       <c r="B185" t="s">
-        <v>525</v>
+        <v>462</v>
       </c>
       <c r="C185" t="s">
-        <v>539</v>
+        <v>101</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B186" t="s">
-        <v>320</v>
-      </c>
-      <c r="C186" t="s">
-        <v>105</v>
+        <v>493</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>102</v>
+        <v>528</v>
       </c>
       <c r="B187" t="s">
-        <v>319</v>
+        <v>518</v>
       </c>
       <c r="C187" t="s">
-        <v>104</v>
+        <v>529</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -4678,10 +4702,10 @@
         <v>102</v>
       </c>
       <c r="B188" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C188" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -4689,87 +4713,87 @@
         <v>102</v>
       </c>
       <c r="B189" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C189" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="B190" t="s">
-        <v>430</v>
+        <v>316</v>
       </c>
       <c r="C190" t="s">
-        <v>373</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="B191" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="C191" t="s">
-        <v>407</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="B192" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C192" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>489</v>
+        <v>403</v>
       </c>
       <c r="B193" t="s">
-        <v>483</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>490</v>
+        <v>424</v>
+      </c>
+      <c r="C193" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="B194" t="s">
-        <v>525</v>
+        <v>396</v>
       </c>
       <c r="C194" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>106</v>
+        <v>484</v>
       </c>
       <c r="B195" t="s">
-        <v>350</v>
-      </c>
-      <c r="C195" t="s">
-        <v>107</v>
+        <v>478</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>106</v>
+        <v>484</v>
       </c>
       <c r="B196" t="s">
-        <v>338</v>
+        <v>518</v>
       </c>
       <c r="C196" t="s">
-        <v>108</v>
+        <v>529</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4777,43 +4801,43 @@
         <v>106</v>
       </c>
       <c r="B197" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C197" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B198" t="s">
-        <v>341</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>238</v>
+        <v>337</v>
+      </c>
+      <c r="C198" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B199" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="C199" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B200" t="s">
-        <v>481</v>
-      </c>
-      <c r="C200" t="s">
-        <v>114</v>
+        <v>340</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -4824,7 +4848,7 @@
         <v>308</v>
       </c>
       <c r="C201" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -4832,10 +4856,10 @@
         <v>110</v>
       </c>
       <c r="B202" t="s">
-        <v>308</v>
+        <v>476</v>
       </c>
       <c r="C202" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4843,120 +4867,120 @@
         <v>110</v>
       </c>
       <c r="B203" t="s">
-        <v>500</v>
+        <v>308</v>
       </c>
       <c r="C203" t="s">
-        <v>505</v>
+        <v>111</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>456</v>
+        <v>110</v>
       </c>
       <c r="B204" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="C204" t="s">
-        <v>457</v>
+        <v>113</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>456</v>
+        <v>110</v>
       </c>
       <c r="B205" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="C205" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="B206" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="C206" t="s">
-        <v>116</v>
+        <v>452</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="B207" t="s">
-        <v>451</v>
-      </c>
-      <c r="C207" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C207" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>427</v>
+        <v>115</v>
       </c>
       <c r="B208" t="s">
-        <v>423</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>428</v>
+        <v>337</v>
+      </c>
+      <c r="C208" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="B209" t="s">
-        <v>559</v>
-      </c>
-      <c r="C209" t="s">
-        <v>274</v>
+        <v>446</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>273</v>
+        <v>422</v>
       </c>
       <c r="B210" t="s">
-        <v>317</v>
-      </c>
-      <c r="C210" t="s">
-        <v>303</v>
+        <v>419</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B211" t="s">
-        <v>318</v>
+        <v>547</v>
       </c>
       <c r="C211" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="B212" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C212" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="B213" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C213" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -4964,32 +4988,32 @@
         <v>117</v>
       </c>
       <c r="B214" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="C214" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B215" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="C215" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B216" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -4997,208 +5021,208 @@
         <v>121</v>
       </c>
       <c r="B217" t="s">
-        <v>451</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>453</v>
+        <v>314</v>
+      </c>
+      <c r="C217" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>414</v>
+        <v>121</v>
       </c>
       <c r="B218" t="s">
-        <v>415</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>416</v>
+        <v>320</v>
+      </c>
+      <c r="C218" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B219" t="s">
-        <v>313</v>
-      </c>
-      <c r="C219" t="s">
-        <v>124</v>
+        <v>446</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>515</v>
+        <v>411</v>
       </c>
       <c r="B220" t="s">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>515</v>
+        <v>123</v>
       </c>
       <c r="B221" t="s">
-        <v>525</v>
+        <v>313</v>
       </c>
       <c r="C221" t="s">
-        <v>539</v>
+        <v>124</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B222" t="s">
-        <v>332</v>
-      </c>
-      <c r="C222" t="s">
-        <v>575</v>
+        <v>493</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>125</v>
+        <v>508</v>
       </c>
       <c r="B223" t="s">
-        <v>341</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>237</v>
+        <v>518</v>
+      </c>
+      <c r="C223" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="B224" t="s">
-        <v>463</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>480</v>
+        <v>566</v>
+      </c>
+      <c r="C224" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>126</v>
+        <v>575</v>
       </c>
       <c r="B225" t="s">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="C225" t="s">
-        <v>127</v>
+        <v>577</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B226" t="s">
-        <v>332</v>
-      </c>
-      <c r="C226" t="s">
-        <v>262</v>
+        <v>340</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>128</v>
+        <v>474</v>
       </c>
       <c r="B227" t="s">
-        <v>473</v>
-      </c>
-      <c r="C227" t="s">
-        <v>129</v>
+        <v>458</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B228" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C228" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>411</v>
+        <v>126</v>
       </c>
       <c r="B229" t="s">
-        <v>399</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>412</v>
+        <v>566</v>
+      </c>
+      <c r="C229" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>431</v>
+        <v>128</v>
       </c>
       <c r="B230" t="s">
-        <v>423</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>432</v>
+        <v>468</v>
+      </c>
+      <c r="C230" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>431</v>
+        <v>128</v>
       </c>
       <c r="B231" t="s">
-        <v>423</v>
+        <v>306</v>
       </c>
       <c r="C231" t="s">
-        <v>433</v>
+        <v>130</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="B232" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="B233" t="s">
-        <v>341</v>
-      </c>
-      <c r="C233" t="s">
-        <v>134</v>
+        <v>419</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="B234" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="C234" t="s">
-        <v>133</v>
+        <v>428</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="B235" t="s">
-        <v>307</v>
-      </c>
-      <c r="C235" t="s">
-        <v>132</v>
+        <v>435</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -5206,54 +5230,54 @@
         <v>131</v>
       </c>
       <c r="B236" t="s">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="C236" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>376</v>
+        <v>131</v>
       </c>
       <c r="B237" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C237" t="s">
-        <v>377</v>
+        <v>133</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B238" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C238" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B239" t="s">
-        <v>565</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>236</v>
+        <v>445</v>
+      </c>
+      <c r="C239" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B240" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C240" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -5261,10 +5285,10 @@
         <v>135</v>
       </c>
       <c r="B241" t="s">
-        <v>563</v>
+        <v>325</v>
       </c>
       <c r="C241" t="s">
-        <v>566</v>
+        <v>136</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -5272,43 +5296,43 @@
         <v>135</v>
       </c>
       <c r="B242" t="s">
-        <v>563</v>
-      </c>
-      <c r="C242" t="s">
-        <v>567</v>
+        <v>553</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B243" t="s">
-        <v>351</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>235</v>
+        <v>313</v>
+      </c>
+      <c r="C243" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B244" t="s">
-        <v>341</v>
+        <v>551</v>
       </c>
       <c r="C244" t="s">
-        <v>139</v>
+        <v>554</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B245" t="s">
-        <v>338</v>
+        <v>551</v>
       </c>
       <c r="C245" t="s">
-        <v>118</v>
+        <v>555</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -5316,10 +5340,10 @@
         <v>138</v>
       </c>
       <c r="B246" t="s">
-        <v>307</v>
-      </c>
-      <c r="C246" t="s">
-        <v>132</v>
+        <v>350</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -5327,10 +5351,10 @@
         <v>138</v>
       </c>
       <c r="B247" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C247" t="s">
-        <v>286</v>
+        <v>139</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -5338,483 +5362,483 @@
         <v>138</v>
       </c>
       <c r="B248" t="s">
-        <v>348</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>298</v>
+        <v>337</v>
+      </c>
+      <c r="C248" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="B249" t="s">
-        <v>317</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>266</v>
+        <v>307</v>
+      </c>
+      <c r="C249" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B250" t="s">
-        <v>467</v>
+        <v>336</v>
       </c>
       <c r="C250" t="s">
-        <v>101</v>
+        <v>286</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B251" t="s">
-        <v>442</v>
-      </c>
-      <c r="C251" t="s">
-        <v>252</v>
+        <v>347</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B252" t="s">
-        <v>500</v>
+        <v>317</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>516</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>320</v>
+        <v>462</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>330</v>
+        <v>437</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="B255" t="s">
-        <v>325</v>
-      </c>
-      <c r="C255" t="s">
-        <v>454</v>
+        <v>493</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B256" t="s">
-        <v>530</v>
+        <v>320</v>
       </c>
       <c r="C256" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="B257" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="C257" t="s">
-        <v>521</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>520</v>
+        <v>141</v>
       </c>
       <c r="B258" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C258" t="s">
-        <v>576</v>
+        <v>449</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B259" t="s">
-        <v>562</v>
+        <v>521</v>
       </c>
       <c r="C259" t="s">
-        <v>143</v>
+        <v>450</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>144</v>
+        <v>513</v>
       </c>
       <c r="B260" t="s">
-        <v>307</v>
+        <v>493</v>
       </c>
       <c r="C260" t="s">
-        <v>145</v>
+        <v>514</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="B261" t="s">
-        <v>308</v>
+        <v>566</v>
       </c>
       <c r="C261" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B262" t="s">
-        <v>312</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>234</v>
+        <v>550</v>
+      </c>
+      <c r="C262" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>469</v>
+        <v>144</v>
       </c>
       <c r="B263" t="s">
-        <v>463</v>
+        <v>307</v>
       </c>
       <c r="C263" t="s">
-        <v>470</v>
+        <v>145</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>253</v>
+        <v>540</v>
       </c>
       <c r="B264" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C264" t="s">
-        <v>254</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B265" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>147</v>
+        <v>464</v>
       </c>
       <c r="B266" t="s">
-        <v>325</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>233</v>
+        <v>458</v>
+      </c>
+      <c r="C266" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B267" t="s">
-        <v>325</v>
+        <v>566</v>
       </c>
       <c r="C267" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B268" t="s">
-        <v>315</v>
-      </c>
-      <c r="C268" t="s">
-        <v>150</v>
+        <v>325</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B269" t="s">
-        <v>310</v>
-      </c>
-      <c r="C269" t="s">
-        <v>152</v>
+        <v>325</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>410</v>
+        <v>147</v>
       </c>
       <c r="B270" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="C270" t="s">
-        <v>572</v>
+        <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B271" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C271" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B272" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C272" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B273" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C273" t="s">
-        <v>390</v>
+        <v>560</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>502</v>
+        <v>153</v>
       </c>
       <c r="B274" t="s">
-        <v>500</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>503</v>
+        <v>340</v>
+      </c>
+      <c r="C274" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B275" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C275" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="B276" t="s">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="C276" t="s">
-        <v>476</v>
+        <v>388</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="B277" t="s">
-        <v>313</v>
-      </c>
-      <c r="C277" t="s">
-        <v>158</v>
+        <v>493</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>391</v>
+        <v>155</v>
       </c>
       <c r="B278" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="C278" t="s">
-        <v>392</v>
+        <v>156</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B279" t="s">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="C279" t="s">
-        <v>160</v>
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B280" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C280" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="B281" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="C281" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B282" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C282" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>424</v>
+        <v>161</v>
       </c>
       <c r="B283" t="s">
-        <v>423</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>425</v>
+        <v>351</v>
+      </c>
+      <c r="C283" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B284" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C284" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="B285" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C285" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>167</v>
+        <v>420</v>
       </c>
       <c r="B286" t="s">
-        <v>313</v>
-      </c>
-      <c r="C286" t="s">
-        <v>168</v>
+        <v>419</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B287" t="s">
-        <v>423</v>
+        <v>331</v>
       </c>
       <c r="C287" t="s">
-        <v>436</v>
+        <v>166</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>508</v>
+        <v>301</v>
       </c>
       <c r="B288" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="C288" t="s">
-        <v>509</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B289" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C289" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B290" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="C290" t="s">
-        <v>171</v>
+        <v>431</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="B291" t="s">
-        <v>314</v>
+        <v>493</v>
       </c>
       <c r="C291" t="s">
-        <v>122</v>
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -5822,10 +5846,10 @@
         <v>169</v>
       </c>
       <c r="B292" t="s">
-        <v>307</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>230</v>
+        <v>321</v>
+      </c>
+      <c r="C292" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -5833,241 +5857,241 @@
         <v>169</v>
       </c>
       <c r="B293" t="s">
-        <v>525</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>548</v>
+        <v>361</v>
+      </c>
+      <c r="C293" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>465</v>
+        <v>169</v>
       </c>
       <c r="B294" t="s">
-        <v>463</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>466</v>
+        <v>314</v>
+      </c>
+      <c r="C294" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>557</v>
+        <v>169</v>
       </c>
       <c r="B295" t="s">
-        <v>310</v>
-      </c>
-      <c r="C295" t="s">
-        <v>558</v>
+        <v>307</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="B296" t="s">
-        <v>337</v>
-      </c>
-      <c r="C296" t="s">
-        <v>297</v>
+        <v>518</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>290</v>
+        <v>460</v>
       </c>
       <c r="B297" t="s">
-        <v>354</v>
-      </c>
-      <c r="C297" t="s">
-        <v>291</v>
+        <v>458</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>393</v>
+        <v>545</v>
       </c>
       <c r="B298" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="C298" t="s">
-        <v>394</v>
+        <v>546</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C299" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="B300" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="C300" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>175</v>
+        <v>391</v>
       </c>
       <c r="B301" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="C301" t="s">
-        <v>176</v>
+        <v>392</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="B302" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="C302" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B303" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C303" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>177</v>
+        <v>582</v>
       </c>
       <c r="B304" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="C304" t="s">
-        <v>178</v>
+        <v>583</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B305" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C305" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="B306" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="B307" t="s">
-        <v>316</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>229</v>
+        <v>308</v>
+      </c>
+      <c r="C307" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B308" t="s">
-        <v>316</v>
+        <v>573</v>
       </c>
       <c r="C308" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B309" t="s">
-        <v>451</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>229</v>
+        <v>312</v>
+      </c>
+      <c r="C309" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="B310" t="s">
-        <v>451</v>
+        <v>329</v>
       </c>
       <c r="C310" t="s">
-        <v>461</v>
+        <v>179</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B311" t="s">
-        <v>313</v>
-      </c>
-      <c r="C311" t="s">
-        <v>6</v>
+        <v>316</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B312" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C312" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B313" t="s">
-        <v>483</v>
-      </c>
-      <c r="C313" t="s">
-        <v>488</v>
+        <v>446</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>180</v>
+        <v>455</v>
       </c>
       <c r="B314" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="C314" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -6075,131 +6099,131 @@
         <v>180</v>
       </c>
       <c r="B315" t="s">
-        <v>525</v>
+        <v>313</v>
       </c>
       <c r="C315" t="s">
-        <v>545</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>512</v>
+        <v>180</v>
       </c>
       <c r="B316" t="s">
-        <v>500</v>
+        <v>313</v>
       </c>
       <c r="C316" t="s">
-        <v>513</v>
+        <v>32</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B317" t="s">
-        <v>326</v>
+        <v>478</v>
       </c>
       <c r="C317" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B318" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C318" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>471</v>
+        <v>180</v>
       </c>
       <c r="B319" t="s">
-        <v>463</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>472</v>
+        <v>518</v>
+      </c>
+      <c r="C319" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>183</v>
+        <v>505</v>
       </c>
       <c r="B320" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
       <c r="C320" t="s">
-        <v>184</v>
+        <v>506</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B321" t="s">
-        <v>563</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>569</v>
+        <v>326</v>
+      </c>
+      <c r="C321" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B322" t="s">
-        <v>563</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>570</v>
+        <v>478</v>
+      </c>
+      <c r="C322" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>185</v>
+        <v>466</v>
       </c>
       <c r="B323" t="s">
-        <v>497</v>
-      </c>
-      <c r="C323" t="s">
-        <v>187</v>
+        <v>458</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B324" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C324" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B325" t="s">
-        <v>312</v>
-      </c>
-      <c r="C325" t="s">
-        <v>186</v>
+        <v>551</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B326" t="s">
-        <v>320</v>
-      </c>
-      <c r="C326" t="s">
-        <v>189</v>
+        <v>551</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -6207,246 +6231,290 @@
         <v>185</v>
       </c>
       <c r="B327" t="s">
-        <v>531</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>453</v>
+        <v>574</v>
+      </c>
+      <c r="C327" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="B328" t="s">
-        <v>316</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>227</v>
+        <v>329</v>
+      </c>
+      <c r="C328" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>474</v>
+        <v>185</v>
       </c>
       <c r="B329" t="s">
-        <v>463</v>
+        <v>312</v>
       </c>
       <c r="C329" t="s">
-        <v>475</v>
+        <v>186</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>474</v>
+        <v>185</v>
       </c>
       <c r="B330" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C330" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B331" t="s">
-        <v>312</v>
-      </c>
-      <c r="C331" t="s">
-        <v>225</v>
+        <v>522</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>524</v>
+        <v>223</v>
       </c>
       <c r="B332" t="s">
-        <v>525</v>
-      </c>
-      <c r="C332" t="s">
-        <v>526</v>
+        <v>316</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>190</v>
+        <v>469</v>
       </c>
       <c r="B333" t="s">
-        <v>314</v>
+        <v>458</v>
       </c>
       <c r="C333" t="s">
-        <v>191</v>
+        <v>470</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>190</v>
+        <v>469</v>
       </c>
       <c r="B334" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C334" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B335" t="s">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="C335" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>194</v>
+        <v>517</v>
       </c>
       <c r="B336" t="s">
-        <v>308</v>
+        <v>518</v>
       </c>
       <c r="C336" t="s">
-        <v>195</v>
+        <v>519</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B337" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C337" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="B338" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="C338" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="B339" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="C339" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="B340" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C340" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B341" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="C341" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>197</v>
+        <v>367</v>
       </c>
       <c r="B342" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="C342" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="B343" t="s">
-        <v>338</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>231</v>
+        <v>339</v>
+      </c>
+      <c r="C343" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="B344" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C344" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B345" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="C345" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B346" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C346" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B347" t="s">
-        <v>341</v>
-      </c>
-      <c r="C347" t="s">
-        <v>202</v>
+        <v>337</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>200</v>
+      </c>
+      <c r="B348" t="s">
+        <v>337</v>
+      </c>
+      <c r="C348" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>200</v>
+      </c>
+      <c r="B349" t="s">
+        <v>340</v>
+      </c>
+      <c r="C349" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>201</v>
       </c>
-      <c r="B348" t="s">
-        <v>348</v>
-      </c>
-      <c r="C348" t="s">
+      <c r="B350" t="s">
+        <v>306</v>
+      </c>
+      <c r="C350" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>201</v>
+      </c>
+      <c r="B351" t="s">
+        <v>340</v>
+      </c>
+      <c r="C351" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>201</v>
+      </c>
+      <c r="B352" t="s">
+        <v>347</v>
+      </c>
+      <c r="C352" t="s">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C348">
-    <sortCondition ref="A1:A348"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C356">
+    <sortCondition ref="A1:A356"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/phrx_words.xlsx
+++ b/phrx_words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Pictures\Phyrexian\phyrexian_search_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3859ADCC-E851-43ED-A56E-B4D5C93A2A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727291E9-D750-4C7B-ACE8-CFCBB30742C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14988" yWindow="300" windowWidth="7500" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phrx_words" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="604">
   <si>
     <t>Ability</t>
   </si>
@@ -1700,9 +1700,6 @@
     <t>V-ZLMvZxGVQV</t>
   </si>
   <si>
-    <t>V-ZLMvZxGVV</t>
-  </si>
-  <si>
     <t>ONE_Lukka, ONE_Norn</t>
   </si>
   <si>
@@ -1791,6 +1788,63 @@
   </si>
   <si>
     <t>-ZvLAr-Zx</t>
+  </si>
+  <si>
+    <t>V-ZLMvZxFVV</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Cleanse</t>
+  </si>
+  <si>
+    <t>Merch, ONE_Trailer, ONE_Solphim</t>
+  </si>
+  <si>
+    <t>ONwZxQTdEET</t>
+  </si>
+  <si>
+    <t>-ZL_dFNxLZx</t>
+  </si>
+  <si>
+    <t>Merch</t>
+  </si>
+  <si>
+    <t>-ZL_dFNxZx</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>ONE_Panel</t>
+  </si>
+  <si>
+    <t>ZwNvJ-Z-ZyL-Z</t>
+  </si>
+  <si>
+    <t>ZxVK-ZwHNw</t>
+  </si>
+  <si>
+    <t>DdHTdHNe</t>
+  </si>
+  <si>
+    <t>DdHTdQNe</t>
+  </si>
+  <si>
+    <t>ONE_Jace, NPH_Misstep</t>
+  </si>
+  <si>
+    <t>ZxOCrFDdLZx</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>+ZvLDdNxZwGMwQTd</t>
   </si>
 </sst>
 </file>
@@ -2632,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C352"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="116" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C4" t="s">
         <v>515</v>
@@ -2730,13 +2784,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" t="s">
         <v>580</v>
-      </c>
-      <c r="B9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C9" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2810,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C16" t="s">
         <v>257</v>
@@ -3016,13 +3070,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B35" t="s">
         <v>306</v>
       </c>
       <c r="C35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3038,13 +3092,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>583</v>
+      </c>
+      <c r="B37" t="s">
+        <v>575</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B37" t="s">
-        <v>576</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3107,7 +3161,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -3129,7 +3183,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C45" t="s">
         <v>261</v>
@@ -3203,101 +3257,101 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>472</v>
+        <v>587</v>
       </c>
       <c r="B52" t="s">
-        <v>458</v>
+        <v>588</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>473</v>
+        <v>590</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>472</v>
+        <v>587</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
+        <v>591</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s">
-        <v>518</v>
-      </c>
-      <c r="C54" t="s">
-        <v>524</v>
+        <v>458</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C55" t="s">
-        <v>543</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B56" t="s">
-        <v>337</v>
+        <v>518</v>
       </c>
       <c r="C56" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>542</v>
       </c>
       <c r="B57" t="s">
-        <v>463</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>542</v>
       </c>
       <c r="B58" t="s">
         <v>337</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>247</v>
+      <c r="C58" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>311</v>
-      </c>
-      <c r="C60" t="s">
-        <v>28</v>
+        <v>337</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -3305,10 +3359,10 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>512</v>
+        <v>314</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -3316,32 +3370,32 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>435</v>
+        <v>311</v>
       </c>
       <c r="C62" t="s">
-        <v>440</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -3349,10 +3403,10 @@
         <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>533</v>
+        <v>313</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -3360,32 +3414,32 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>551</v>
+        <v>312</v>
       </c>
       <c r="C66" t="s">
-        <v>559</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>339</v>
+        <v>533</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>551</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>558</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -3393,32 +3447,32 @@
         <v>283</v>
       </c>
       <c r="B69" t="s">
-        <v>518</v>
+        <v>339</v>
       </c>
       <c r="C69" t="s">
-        <v>529</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="B71" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -3426,43 +3480,43 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="C72" t="s">
-        <v>433</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>566</v>
+        <v>323</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>419</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>565</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -3470,32 +3524,32 @@
         <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>534</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>570</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>244</v>
+        <v>313</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>309</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>245</v>
+        <v>534</v>
+      </c>
+      <c r="C78" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3503,10 +3557,10 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
-      </c>
-      <c r="C79" t="s">
-        <v>209</v>
+        <v>569</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -3514,10 +3568,10 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>549</v>
-      </c>
-      <c r="C80" t="s">
-        <v>41</v>
+        <v>309</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3525,10 +3579,10 @@
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>243</v>
+        <v>316</v>
+      </c>
+      <c r="C81" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3536,10 +3590,10 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>549</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3547,10 +3601,10 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>489</v>
+        <v>340</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -3558,10 +3612,10 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>568</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -3569,10 +3623,10 @@
         <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>396</v>
-      </c>
-      <c r="C85" t="s">
-        <v>401</v>
+        <v>489</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -3580,10 +3634,10 @@
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>435</v>
+        <v>567</v>
       </c>
       <c r="C86" t="s">
-        <v>444</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -3591,10 +3645,10 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="C87" t="s">
-        <v>483</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -3602,10 +3656,10 @@
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>493</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>500</v>
+        <v>435</v>
+      </c>
+      <c r="C88" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -3613,10 +3667,10 @@
         <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C89" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,7 +3681,7 @@
         <v>493</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -3638,7 +3692,7 @@
         <v>493</v>
       </c>
       <c r="C91" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -3646,109 +3700,109 @@
         <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>518</v>
-      </c>
-      <c r="C92" t="s">
-        <v>520</v>
+        <v>493</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>510</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
         <v>493</v>
       </c>
       <c r="C93" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>518</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
       <c r="B95" t="s">
-        <v>322</v>
+        <v>493</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>511</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>526</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
-        <v>518</v>
+        <v>322</v>
       </c>
       <c r="C97" t="s">
-        <v>527</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>571</v>
+        <v>337</v>
       </c>
       <c r="C98" t="s">
-        <v>394</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>526</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>518</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>393</v>
       </c>
       <c r="B100" t="s">
-        <v>307</v>
+        <v>570</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="B101" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C101" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -3756,32 +3810,32 @@
         <v>46</v>
       </c>
       <c r="B102" t="s">
-        <v>567</v>
+        <v>307</v>
       </c>
       <c r="C102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>442</v>
+        <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>566</v>
+        <v>320</v>
       </c>
       <c r="C103" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>442</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>419</v>
+        <v>566</v>
       </c>
       <c r="C104" t="s">
-        <v>443</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -3789,10 +3843,10 @@
         <v>442</v>
       </c>
       <c r="B105" t="s">
-        <v>435</v>
+        <v>565</v>
       </c>
       <c r="C105" t="s">
-        <v>444</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -3800,10 +3854,10 @@
         <v>442</v>
       </c>
       <c r="B106" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="C106" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3811,153 +3865,153 @@
         <v>442</v>
       </c>
       <c r="B107" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="C107" t="s">
-        <v>524</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>442</v>
       </c>
       <c r="B108" t="s">
-        <v>341</v>
+        <v>478</v>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>442</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>518</v>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>365</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C110" t="s">
-        <v>366</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="C112" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C113" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="B114" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C114" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>578</v>
+        <v>278</v>
       </c>
       <c r="B115" t="s">
-        <v>576</v>
+        <v>336</v>
       </c>
       <c r="C115" t="s">
-        <v>579</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="B116" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="C116" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>400</v>
+        <v>577</v>
       </c>
       <c r="B117" t="s">
-        <v>396</v>
+        <v>575</v>
       </c>
       <c r="C117" t="s">
-        <v>406</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B118" t="s">
         <v>396</v>
       </c>
       <c r="C118" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="C119" t="s">
-        <v>54</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
-        <v>55</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -3965,32 +4019,32 @@
         <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C121" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>532</v>
+        <v>342</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C123" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -3998,10 +4052,10 @@
         <v>56</v>
       </c>
       <c r="B124" t="s">
-        <v>313</v>
+        <v>532</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -4009,10 +4063,10 @@
         <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>242</v>
+        <v>320</v>
+      </c>
+      <c r="C125" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -4020,186 +4074,186 @@
         <v>56</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B127" t="s">
-        <v>344</v>
-      </c>
-      <c r="C127" t="s">
-        <v>62</v>
+        <v>329</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>339</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>281</v>
+        <v>329</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C129" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
-      </c>
-      <c r="C130" t="s">
-        <v>66</v>
+        <v>339</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
-        <v>336</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>293</v>
+        <v>345</v>
+      </c>
+      <c r="C131" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C132" t="s">
-        <v>377</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="B133" t="s">
-        <v>307</v>
-      </c>
-      <c r="C133" t="s">
-        <v>68</v>
+        <v>336</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>376</v>
       </c>
       <c r="B134" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="C134" t="s">
-        <v>70</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B135" t="s">
-        <v>340</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>238</v>
+        <v>307</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B136" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C136" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>412</v>
-      </c>
-      <c r="C137" t="s">
-        <v>417</v>
+        <v>340</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B138" t="s">
-        <v>338</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>241</v>
+        <v>347</v>
+      </c>
+      <c r="C138" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>416</v>
       </c>
       <c r="B139" t="s">
-        <v>343</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>268</v>
+        <v>412</v>
+      </c>
+      <c r="C139" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="B140" t="s">
-        <v>478</v>
-      </c>
-      <c r="C140" t="s">
-        <v>490</v>
+        <v>338</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="B141" t="s">
-        <v>537</v>
-      </c>
-      <c r="C141" t="s">
-        <v>74</v>
+        <v>343</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="B142" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="C142" t="s">
-        <v>222</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -4207,10 +4261,10 @@
         <v>73</v>
       </c>
       <c r="B143" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="C143" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4218,65 +4272,65 @@
         <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="C144" t="s">
-        <v>405</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>363</v>
+        <v>571</v>
       </c>
       <c r="C145" t="s">
-        <v>364</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>378</v>
+        <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>363</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>379</v>
+        <v>396</v>
+      </c>
+      <c r="C146" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>240</v>
+        <v>363</v>
+      </c>
+      <c r="C147" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>309</v>
-      </c>
-      <c r="C149" t="s">
-        <v>77</v>
+        <v>307</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -4284,10 +4338,10 @@
         <v>76</v>
       </c>
       <c r="B150" t="s">
-        <v>313</v>
-      </c>
-      <c r="C150" t="s">
-        <v>78</v>
+        <v>329</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -4295,10 +4349,10 @@
         <v>76</v>
       </c>
       <c r="B151" t="s">
-        <v>446</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
-        <v>453</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -4306,32 +4360,32 @@
         <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>518</v>
+        <v>313</v>
       </c>
       <c r="C152" t="s">
-        <v>530</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B153" t="s">
-        <v>342</v>
+        <v>446</v>
       </c>
       <c r="C153" t="s">
-        <v>81</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>518</v>
       </c>
       <c r="C154" t="s">
-        <v>80</v>
+        <v>530</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -4339,10 +4393,10 @@
         <v>79</v>
       </c>
       <c r="B155" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C155" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -4350,10 +4404,10 @@
         <v>79</v>
       </c>
       <c r="B156" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="C156" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -4361,10 +4415,10 @@
         <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C157" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -4372,54 +4426,54 @@
         <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C158" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
-        <v>478</v>
+        <v>342</v>
       </c>
       <c r="C159" t="s">
-        <v>483</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="B160" t="s">
-        <v>493</v>
+        <v>339</v>
       </c>
       <c r="C160" t="s">
-        <v>504</v>
+        <v>275</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>482</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>478</v>
       </c>
       <c r="C161" t="s">
-        <v>217</v>
+        <v>483</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>216</v>
+        <v>482</v>
       </c>
       <c r="B162" t="s">
-        <v>566</v>
+        <v>493</v>
       </c>
       <c r="C162" t="s">
-        <v>260</v>
+        <v>504</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -4427,10 +4481,10 @@
         <v>216</v>
       </c>
       <c r="B163" t="s">
-        <v>396</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>409</v>
+        <v>316</v>
+      </c>
+      <c r="C163" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -4438,197 +4492,197 @@
         <v>216</v>
       </c>
       <c r="B164" t="s">
-        <v>307</v>
+        <v>565</v>
       </c>
       <c r="C164" t="s">
-        <v>565</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B165" t="s">
-        <v>536</v>
-      </c>
-      <c r="C165" t="s">
-        <v>85</v>
+        <v>396</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B166" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C166" t="s">
-        <v>86</v>
+        <v>564</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>320</v>
+        <v>536</v>
       </c>
       <c r="C167" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C168" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="B169" t="s">
-        <v>569</v>
+        <v>320</v>
       </c>
       <c r="C169" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="B170" t="s">
-        <v>478</v>
+        <v>310</v>
       </c>
       <c r="C170" t="s">
-        <v>483</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>385</v>
+        <v>258</v>
       </c>
       <c r="B171" t="s">
-        <v>381</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>386</v>
+        <v>568</v>
+      </c>
+      <c r="C171" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
+        <v>478</v>
       </c>
       <c r="C172" t="s">
-        <v>92</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>93</v>
+        <v>385</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
-      </c>
-      <c r="C173" t="s">
-        <v>94</v>
+        <v>381</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="B174" t="s">
-        <v>418</v>
+        <v>308</v>
       </c>
       <c r="C174" t="s">
-        <v>370</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>410</v>
+        <v>93</v>
       </c>
       <c r="B175" t="s">
-        <v>412</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>413</v>
+        <v>340</v>
+      </c>
+      <c r="C175" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="B176" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C176" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
-      </c>
-      <c r="C177" t="s">
-        <v>270</v>
+        <v>412</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>487</v>
+        <v>410</v>
       </c>
       <c r="B178" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="C178" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B179" t="s">
-        <v>339</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
+      </c>
+      <c r="C179" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>95</v>
+        <v>487</v>
       </c>
       <c r="B180" t="s">
-        <v>332</v>
+        <v>478</v>
       </c>
       <c r="C180" t="s">
-        <v>99</v>
+        <v>488</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="B181" t="s">
-        <v>414</v>
-      </c>
-      <c r="C181" t="s">
-        <v>96</v>
+        <v>339</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -4636,32 +4690,32 @@
         <v>95</v>
       </c>
       <c r="B182" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C182" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B183" t="s">
-        <v>548</v>
+        <v>414</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B184" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -4669,10 +4723,10 @@
         <v>100</v>
       </c>
       <c r="B185" t="s">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="C185" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4680,43 +4734,43 @@
         <v>100</v>
       </c>
       <c r="B186" t="s">
-        <v>493</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>509</v>
+        <v>313</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>528</v>
+        <v>100</v>
       </c>
       <c r="B187" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="C187" t="s">
-        <v>529</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B188" t="s">
-        <v>320</v>
-      </c>
-      <c r="C188" t="s">
-        <v>105</v>
+        <v>493</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>102</v>
+        <v>528</v>
       </c>
       <c r="B189" t="s">
-        <v>319</v>
+        <v>518</v>
       </c>
       <c r="C189" t="s">
-        <v>104</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -4724,10 +4778,10 @@
         <v>102</v>
       </c>
       <c r="B190" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C190" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -4735,87 +4789,87 @@
         <v>102</v>
       </c>
       <c r="B191" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C191" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="B192" t="s">
-        <v>425</v>
+        <v>316</v>
       </c>
       <c r="C192" t="s">
-        <v>372</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>403</v>
+        <v>102</v>
       </c>
       <c r="B193" t="s">
-        <v>424</v>
+        <v>329</v>
       </c>
       <c r="C193" t="s">
-        <v>404</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B194" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="C194" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>484</v>
+        <v>403</v>
       </c>
       <c r="B195" t="s">
-        <v>478</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>485</v>
+        <v>424</v>
+      </c>
+      <c r="C195" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>484</v>
+        <v>398</v>
       </c>
       <c r="B196" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="C196" t="s">
-        <v>529</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>106</v>
+        <v>484</v>
       </c>
       <c r="B197" t="s">
-        <v>349</v>
-      </c>
-      <c r="C197" t="s">
-        <v>107</v>
+        <v>478</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>106</v>
+        <v>484</v>
       </c>
       <c r="B198" t="s">
-        <v>337</v>
+        <v>518</v>
       </c>
       <c r="C198" t="s">
-        <v>108</v>
+        <v>529</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -4823,43 +4877,43 @@
         <v>106</v>
       </c>
       <c r="B199" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C199" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B200" t="s">
-        <v>340</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>238</v>
+        <v>337</v>
+      </c>
+      <c r="C200" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B201" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="C201" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B202" t="s">
-        <v>476</v>
-      </c>
-      <c r="C202" t="s">
-        <v>114</v>
+        <v>340</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4870,7 +4924,7 @@
         <v>308</v>
       </c>
       <c r="C203" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -4878,10 +4932,10 @@
         <v>110</v>
       </c>
       <c r="B204" t="s">
-        <v>308</v>
+        <v>476</v>
       </c>
       <c r="C204" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -4889,120 +4943,120 @@
         <v>110</v>
       </c>
       <c r="B205" t="s">
-        <v>493</v>
+        <v>308</v>
       </c>
       <c r="C205" t="s">
-        <v>498</v>
+        <v>111</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>451</v>
+        <v>110</v>
       </c>
       <c r="B206" t="s">
-        <v>446</v>
+        <v>308</v>
       </c>
       <c r="C206" t="s">
-        <v>452</v>
+        <v>113</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>451</v>
+        <v>110</v>
       </c>
       <c r="B207" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="C207" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="B208" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
       <c r="C208" t="s">
-        <v>116</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="B209" t="s">
         <v>446</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>447</v>
+      <c r="C209" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>422</v>
+        <v>115</v>
       </c>
       <c r="B210" t="s">
-        <v>419</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>423</v>
+        <v>337</v>
+      </c>
+      <c r="C210" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="B211" t="s">
-        <v>547</v>
-      </c>
-      <c r="C211" t="s">
-        <v>274</v>
+        <v>599</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>273</v>
+        <v>422</v>
       </c>
       <c r="B212" t="s">
-        <v>317</v>
-      </c>
-      <c r="C212" t="s">
-        <v>303</v>
+        <v>419</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B213" t="s">
-        <v>318</v>
+        <v>547</v>
       </c>
       <c r="C213" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="B214" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C214" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="B215" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C215" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -5010,32 +5064,32 @@
         <v>117</v>
       </c>
       <c r="B216" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C216" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B217" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="C217" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B218" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -5043,54 +5097,54 @@
         <v>121</v>
       </c>
       <c r="B219" t="s">
-        <v>446</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>448</v>
+        <v>314</v>
+      </c>
+      <c r="C219" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>411</v>
+        <v>121</v>
       </c>
       <c r="B220" t="s">
-        <v>412</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>413</v>
+        <v>320</v>
+      </c>
+      <c r="C220" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B221" t="s">
-        <v>313</v>
-      </c>
-      <c r="C221" t="s">
-        <v>124</v>
+        <v>446</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>508</v>
+        <v>411</v>
       </c>
       <c r="B222" t="s">
-        <v>493</v>
+        <v>412</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>509</v>
+        <v>413</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>508</v>
+        <v>123</v>
       </c>
       <c r="B223" t="s">
-        <v>518</v>
+        <v>313</v>
       </c>
       <c r="C223" t="s">
-        <v>529</v>
+        <v>124</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -5098,120 +5152,120 @@
         <v>508</v>
       </c>
       <c r="B224" t="s">
-        <v>566</v>
-      </c>
-      <c r="C224" t="s">
-        <v>563</v>
+        <v>493</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="B225" t="s">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="C225" t="s">
-        <v>577</v>
+        <v>529</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>125</v>
+        <v>508</v>
       </c>
       <c r="B226" t="s">
-        <v>340</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>237</v>
+        <v>565</v>
+      </c>
+      <c r="C226" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>474</v>
+        <v>574</v>
       </c>
       <c r="B227" t="s">
-        <v>458</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>475</v>
+        <v>575</v>
+      </c>
+      <c r="C227" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B228" t="s">
-        <v>324</v>
-      </c>
-      <c r="C228" t="s">
-        <v>127</v>
+        <v>340</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>126</v>
+        <v>474</v>
       </c>
       <c r="B229" t="s">
-        <v>566</v>
-      </c>
-      <c r="C229" t="s">
-        <v>262</v>
+        <v>458</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B230" t="s">
-        <v>468</v>
+        <v>324</v>
       </c>
       <c r="C230" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B231" t="s">
-        <v>306</v>
+        <v>565</v>
       </c>
       <c r="C231" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>408</v>
+        <v>128</v>
       </c>
       <c r="B232" t="s">
-        <v>396</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>409</v>
+        <v>468</v>
+      </c>
+      <c r="C232" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>426</v>
+        <v>128</v>
       </c>
       <c r="B233" t="s">
-        <v>419</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>427</v>
+        <v>306</v>
+      </c>
+      <c r="C233" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B234" t="s">
-        <v>419</v>
-      </c>
-      <c r="C234" t="s">
-        <v>428</v>
+        <v>396</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -5219,32 +5273,32 @@
         <v>426</v>
       </c>
       <c r="B235" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="B236" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="C236" t="s">
-        <v>134</v>
+        <v>428</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="B237" t="s">
-        <v>342</v>
-      </c>
-      <c r="C237" t="s">
-        <v>133</v>
+        <v>435</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -5252,10 +5306,10 @@
         <v>131</v>
       </c>
       <c r="B238" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="C238" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -5263,10 +5317,10 @@
         <v>131</v>
       </c>
       <c r="B239" t="s">
-        <v>445</v>
+        <v>342</v>
       </c>
       <c r="C239" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -5274,32 +5328,32 @@
         <v>131</v>
       </c>
       <c r="B240" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="C240" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B241" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="C241" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B242" t="s">
-        <v>553</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>236</v>
+        <v>363</v>
+      </c>
+      <c r="C242" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -5307,10 +5361,10 @@
         <v>135</v>
       </c>
       <c r="B243" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C243" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -5318,10 +5372,10 @@
         <v>135</v>
       </c>
       <c r="B244" t="s">
-        <v>551</v>
-      </c>
-      <c r="C244" t="s">
-        <v>554</v>
+        <v>553</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -5329,32 +5383,32 @@
         <v>135</v>
       </c>
       <c r="B245" t="s">
-        <v>551</v>
+        <v>313</v>
       </c>
       <c r="C245" t="s">
-        <v>555</v>
+        <v>137</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B246" t="s">
-        <v>350</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>235</v>
+        <v>551</v>
+      </c>
+      <c r="C246" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B247" t="s">
-        <v>340</v>
+        <v>551</v>
       </c>
       <c r="C247" t="s">
-        <v>139</v>
+        <v>585</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -5362,10 +5416,10 @@
         <v>138</v>
       </c>
       <c r="B248" t="s">
-        <v>337</v>
-      </c>
-      <c r="C248" t="s">
-        <v>118</v>
+        <v>350</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -5373,10 +5427,10 @@
         <v>138</v>
       </c>
       <c r="B249" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="C249" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -5384,10 +5438,10 @@
         <v>138</v>
       </c>
       <c r="B250" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C250" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -5395,43 +5449,43 @@
         <v>138</v>
       </c>
       <c r="B251" t="s">
-        <v>347</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
+      </c>
+      <c r="C251" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="B252" t="s">
-        <v>317</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>266</v>
+        <v>336</v>
+      </c>
+      <c r="C252" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B253" t="s">
-        <v>462</v>
-      </c>
-      <c r="C253" t="s">
-        <v>101</v>
+        <v>347</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B254" t="s">
-        <v>437</v>
-      </c>
-      <c r="C254" t="s">
-        <v>252</v>
+        <v>317</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -5439,439 +5493,439 @@
         <v>251</v>
       </c>
       <c r="B255" t="s">
-        <v>493</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>509</v>
+        <v>462</v>
+      </c>
+      <c r="C255" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="B256" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="B257" t="s">
-        <v>330</v>
-      </c>
-      <c r="C257" t="s">
-        <v>18</v>
+        <v>493</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B258" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C258" t="s">
-        <v>449</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B259" t="s">
-        <v>521</v>
+        <v>330</v>
       </c>
       <c r="C259" t="s">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>513</v>
+        <v>141</v>
       </c>
       <c r="B260" t="s">
-        <v>493</v>
+        <v>325</v>
       </c>
       <c r="C260" t="s">
-        <v>514</v>
+        <v>449</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>513</v>
+        <v>141</v>
       </c>
       <c r="B261" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="C261" t="s">
-        <v>564</v>
+        <v>450</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>142</v>
+        <v>513</v>
       </c>
       <c r="B262" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="C262" t="s">
-        <v>143</v>
+        <v>514</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>144</v>
+        <v>513</v>
       </c>
       <c r="B263" t="s">
-        <v>307</v>
+        <v>565</v>
       </c>
       <c r="C263" t="s">
-        <v>145</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>540</v>
+        <v>142</v>
       </c>
       <c r="B264" t="s">
-        <v>308</v>
+        <v>550</v>
       </c>
       <c r="C264" t="s">
-        <v>541</v>
+        <v>143</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B265" t="s">
-        <v>312</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>234</v>
+        <v>307</v>
+      </c>
+      <c r="C265" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>464</v>
+        <v>540</v>
       </c>
       <c r="B266" t="s">
-        <v>458</v>
+        <v>308</v>
       </c>
       <c r="C266" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="B267" t="s">
-        <v>566</v>
-      </c>
-      <c r="C267" t="s">
-        <v>254</v>
+        <v>312</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>147</v>
+        <v>464</v>
       </c>
       <c r="B268" t="s">
-        <v>325</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>232</v>
+        <v>458</v>
+      </c>
+      <c r="C268" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B269" t="s">
-        <v>325</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>233</v>
+        <v>565</v>
+      </c>
+      <c r="C269" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>147</v>
+        <v>586</v>
       </c>
       <c r="B270" t="s">
-        <v>325</v>
+        <v>588</v>
       </c>
       <c r="C270" t="s">
-        <v>148</v>
+        <v>589</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B271" t="s">
-        <v>315</v>
-      </c>
-      <c r="C271" t="s">
-        <v>150</v>
+        <v>325</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B272" t="s">
-        <v>310</v>
-      </c>
-      <c r="C272" t="s">
-        <v>152</v>
+        <v>325</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="B273" t="s">
-        <v>396</v>
+        <v>325</v>
       </c>
       <c r="C273" t="s">
-        <v>560</v>
+        <v>148</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B274" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C274" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B275" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C275" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="B276" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C276" t="s">
-        <v>388</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>495</v>
+        <v>153</v>
       </c>
       <c r="B277" t="s">
-        <v>493</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>496</v>
+        <v>340</v>
+      </c>
+      <c r="C277" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B278" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C278" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="B279" t="s">
-        <v>458</v>
+        <v>381</v>
       </c>
       <c r="C279" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="B280" t="s">
-        <v>313</v>
-      </c>
-      <c r="C280" t="s">
-        <v>158</v>
+        <v>493</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>389</v>
+        <v>155</v>
       </c>
       <c r="B281" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="C281" t="s">
-        <v>390</v>
+        <v>156</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B282" t="s">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="C282" t="s">
-        <v>160</v>
+        <v>471</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B283" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C283" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="B284" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="C284" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B285" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C285" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>420</v>
+        <v>161</v>
       </c>
       <c r="B286" t="s">
-        <v>419</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>421</v>
+        <v>351</v>
+      </c>
+      <c r="C286" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B287" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C287" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="B288" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C288" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>167</v>
+        <v>420</v>
       </c>
       <c r="B289" t="s">
-        <v>313</v>
-      </c>
-      <c r="C289" t="s">
-        <v>168</v>
+        <v>419</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B290" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C290" t="s">
-        <v>431</v>
+        <v>166</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="B291" t="s">
-        <v>493</v>
+        <v>352</v>
       </c>
       <c r="C291" t="s">
-        <v>502</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B292" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C292" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B293" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="C293" t="s">
-        <v>171</v>
+        <v>431</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="B294" t="s">
-        <v>314</v>
+        <v>493</v>
       </c>
       <c r="C294" t="s">
-        <v>122</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -5879,10 +5933,10 @@
         <v>169</v>
       </c>
       <c r="B295" t="s">
-        <v>307</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>230</v>
+        <v>321</v>
+      </c>
+      <c r="C295" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -5890,241 +5944,241 @@
         <v>169</v>
       </c>
       <c r="B296" t="s">
-        <v>518</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>538</v>
+        <v>361</v>
+      </c>
+      <c r="C296" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>460</v>
+        <v>169</v>
       </c>
       <c r="B297" t="s">
-        <v>458</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>461</v>
+        <v>314</v>
+      </c>
+      <c r="C297" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>545</v>
+        <v>169</v>
       </c>
       <c r="B298" t="s">
-        <v>310</v>
-      </c>
-      <c r="C298" t="s">
-        <v>546</v>
+        <v>307</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="B299" t="s">
-        <v>336</v>
-      </c>
-      <c r="C299" t="s">
-        <v>297</v>
+        <v>518</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>290</v>
+        <v>460</v>
       </c>
       <c r="B300" t="s">
-        <v>353</v>
-      </c>
-      <c r="C300" t="s">
-        <v>291</v>
+        <v>458</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>391</v>
+        <v>545</v>
       </c>
       <c r="B301" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="C301" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="B302" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C302" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="B303" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="C303" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>582</v>
+        <v>391</v>
       </c>
       <c r="B304" t="s">
-        <v>576</v>
+        <v>381</v>
       </c>
       <c r="C304" t="s">
-        <v>583</v>
+        <v>392</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="C305" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B306" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C306" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>175</v>
+        <v>581</v>
       </c>
       <c r="B307" t="s">
-        <v>308</v>
+        <v>575</v>
       </c>
       <c r="C307" t="s">
-        <v>111</v>
+        <v>582</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B308" t="s">
-        <v>573</v>
+        <v>313</v>
       </c>
       <c r="C308" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B309" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="B310" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C310" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B311" t="s">
-        <v>316</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>229</v>
+        <v>572</v>
+      </c>
+      <c r="C311" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B312" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C312" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="B313" t="s">
-        <v>446</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>229</v>
+        <v>329</v>
+      </c>
+      <c r="C313" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>455</v>
+        <v>210</v>
       </c>
       <c r="B314" t="s">
-        <v>446</v>
-      </c>
-      <c r="C314" t="s">
-        <v>456</v>
+        <v>316</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B315" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B316" t="s">
-        <v>313</v>
-      </c>
-      <c r="C316" t="s">
-        <v>32</v>
+        <v>446</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>180</v>
+        <v>455</v>
       </c>
       <c r="B317" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="C317" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -6132,10 +6186,10 @@
         <v>180</v>
       </c>
       <c r="B318" t="s">
-        <v>493</v>
+        <v>313</v>
       </c>
       <c r="C318" t="s">
-        <v>504</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -6143,120 +6197,120 @@
         <v>180</v>
       </c>
       <c r="B319" t="s">
-        <v>518</v>
+        <v>313</v>
       </c>
       <c r="C319" t="s">
-        <v>535</v>
+        <v>32</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>505</v>
+        <v>180</v>
       </c>
       <c r="B320" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C320" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B321" t="s">
-        <v>326</v>
+        <v>493</v>
       </c>
       <c r="C321" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B322" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="C322" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="B323" t="s">
-        <v>458</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>467</v>
+        <v>493</v>
+      </c>
+      <c r="C323" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B324" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B325" t="s">
-        <v>551</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>557</v>
+        <v>478</v>
+      </c>
+      <c r="C325" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>183</v>
+        <v>466</v>
       </c>
       <c r="B326" t="s">
-        <v>551</v>
+        <v>458</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>558</v>
+        <v>467</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B327" t="s">
-        <v>574</v>
+        <v>312</v>
       </c>
       <c r="C327" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B328" t="s">
-        <v>329</v>
-      </c>
-      <c r="C328" t="s">
-        <v>188</v>
+        <v>551</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B329" t="s">
-        <v>312</v>
-      </c>
-      <c r="C329" t="s">
-        <v>186</v>
+        <v>551</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -6264,10 +6318,10 @@
         <v>185</v>
       </c>
       <c r="B330" t="s">
-        <v>320</v>
+        <v>573</v>
       </c>
       <c r="C330" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -6275,246 +6329,356 @@
         <v>185</v>
       </c>
       <c r="B331" t="s">
-        <v>522</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>448</v>
+        <v>329</v>
+      </c>
+      <c r="C331" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="B332" t="s">
-        <v>316</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>227</v>
+        <v>312</v>
+      </c>
+      <c r="C332" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>469</v>
+        <v>185</v>
       </c>
       <c r="B333" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="C333" t="s">
-        <v>470</v>
+        <v>189</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>469</v>
+        <v>185</v>
       </c>
       <c r="B334" t="s">
-        <v>308</v>
-      </c>
-      <c r="C334" t="s">
-        <v>113</v>
+        <v>522</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B335" t="s">
-        <v>312</v>
-      </c>
-      <c r="C335" t="s">
-        <v>225</v>
+        <v>316</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>517</v>
+        <v>469</v>
       </c>
       <c r="B336" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="C336" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>190</v>
+        <v>469</v>
       </c>
       <c r="B337" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C337" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="B338" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C338" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>192</v>
+        <v>517</v>
       </c>
       <c r="B339" t="s">
-        <v>402</v>
+        <v>518</v>
       </c>
       <c r="C339" t="s">
-        <v>193</v>
+        <v>519</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B340" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C340" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C341" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>367</v>
+        <v>192</v>
       </c>
       <c r="B342" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="C342" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="B343" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="C343" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="B344" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C344" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>197</v>
+        <v>367</v>
       </c>
       <c r="B345" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="C345" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="B346" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="C346" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="B347" t="s">
-        <v>337</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>231</v>
+        <v>336</v>
+      </c>
+      <c r="C347" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B348" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="C348" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B349" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C349" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B350" t="s">
-        <v>306</v>
-      </c>
-      <c r="C350" t="s">
-        <v>130</v>
+        <v>337</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B351" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C351" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>200</v>
+      </c>
+      <c r="B352" t="s">
+        <v>340</v>
+      </c>
+      <c r="C352" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>201</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
+        <v>306</v>
+      </c>
+      <c r="C353" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>201</v>
+      </c>
+      <c r="B354" t="s">
+        <v>340</v>
+      </c>
+      <c r="C354" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>201</v>
+      </c>
+      <c r="B355" t="s">
         <v>347</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C355" t="s">
         <v>300</v>
       </c>
     </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>593</v>
+      </c>
+      <c r="B356" t="s">
+        <v>594</v>
+      </c>
+      <c r="C356" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>523</v>
+      </c>
+      <c r="B357" t="s">
+        <v>594</v>
+      </c>
+      <c r="C357" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>185</v>
+      </c>
+      <c r="B358" t="s">
+        <v>594</v>
+      </c>
+      <c r="C358" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>185</v>
+      </c>
+      <c r="B359" t="s">
+        <v>594</v>
+      </c>
+      <c r="C359" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>115</v>
+      </c>
+      <c r="B360" t="s">
+        <v>594</v>
+      </c>
+      <c r="C360" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>601</v>
+      </c>
+      <c r="B361" t="s">
+        <v>594</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>602</v>
+      </c>
+      <c r="B362" t="s">
+        <v>594</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C356">
-    <sortCondition ref="A1:A356"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C355">
+    <sortCondition ref="A1:A355"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
